--- a/Analysis/X-Ray Summary.xlsx
+++ b/Analysis/X-Ray Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Table 1</t>
   </si>
@@ -20,6 +20,12 @@
   </si>
   <si>
     <t>Active Fit</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Updated SLD</t>
   </si>
   <si>
     <t>χ2</t>
@@ -355,7 +361,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -389,6 +395,9 @@
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -401,9 +410,15 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="59" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="59" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -425,7 +440,7 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -434,7 +449,13 @@
     <xf numFmtId="49" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1516,7 +1537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G40"/>
+  <dimension ref="A2:R40"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1524,8 +1545,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.35156" style="1" customWidth="1"/>
+    <col min="8" max="12" width="16.3516" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.35156" style="1" customWidth="1"/>
+    <col min="14" max="18" width="16.3516" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -1538,6 +1563,17 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -1551,10 +1587,25 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
+      <c r="H2" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="7">
         <v>21.1486</v>
@@ -1564,598 +1615,1510 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
+      <c r="H3" s="11">
+        <v>25.9451</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="11">
+        <v>21.1486</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="B4" s="12">
+      <c r="A4" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13">
         <f>SUM(C9:C40)</f>
         <v>14</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16">
+        <f>SUM(I9:I40)</f>
+        <v>14</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="16">
+        <f>SUM(O9:O40)</f>
+        <v>14</v>
+      </c>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="11">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="A5" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="B5" s="13">
         <v>373</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16">
+        <v>373</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16">
+        <v>373</v>
+      </c>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="11">
-        <v>6</v>
-      </c>
-      <c r="B6" s="15">
+      <c r="A6" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="B6" s="17">
         <f>(B5-B4)*B3+B4*LN(B5)</f>
         <v>7675.249497875010</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="18">
+        <f>(H5-H4)*H3+H4*LN(H5)</f>
+        <v>9397.192997875010</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="18">
+        <f>(N5-N4)*N3+N4*LN(N5)</f>
+        <v>7675.249497875010</v>
+      </c>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s" s="18">
+      <c r="A8" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s" s="21">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s" s="22">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s" s="23">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s" s="23">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" t="s" s="23">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s" s="22">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s" s="23">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s" s="23">
+        <v>13</v>
+      </c>
+      <c r="L8" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" t="s" s="23">
+        <v>10</v>
+      </c>
+      <c r="O8" t="s" s="22">
+        <v>11</v>
+      </c>
+      <c r="P8" t="s" s="23">
+        <v>12</v>
+      </c>
+      <c r="Q8" t="s" s="23">
+        <v>13</v>
+      </c>
+      <c r="R8" t="s" s="23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <v>1</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="O9" s="25">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" t="s" s="24">
+        <v>17</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="O10" s="25">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" t="s" s="24">
+        <v>18</v>
+      </c>
+      <c r="C11" s="25">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1.078</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1.1</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="I11" s="25">
+        <v>1</v>
+      </c>
+      <c r="J11" s="16">
+        <v>1.023</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="L11" s="16">
+        <v>1.05</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="O11" s="25">
+        <v>1</v>
+      </c>
+      <c r="P11" s="16">
+        <v>1.078</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="R11" s="16">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="27"/>
+      <c r="B12" t="s" s="24">
+        <v>19</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="O12" s="25">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="19"/>
+      <c r="B13" t="s" s="24">
+        <v>20</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="O13" s="25">
+        <v>0</v>
+      </c>
+      <c r="P13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" t="s" s="28">
+        <v>21</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" t="s" s="29">
+        <v>21</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" t="s" s="29">
+        <v>21</v>
+      </c>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" t="s" s="24">
+        <v>22</v>
+      </c>
+      <c r="C15" s="25">
+        <v>1</v>
+      </c>
+      <c r="D15" s="16">
+        <v>17.63</v>
+      </c>
+      <c r="E15" s="16">
+        <v>8.65</v>
+      </c>
+      <c r="F15" s="16">
+        <v>28.65</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="I15" s="25">
+        <v>1</v>
+      </c>
+      <c r="J15" s="16">
+        <v>18.42</v>
+      </c>
+      <c r="K15" s="16">
+        <v>8.65</v>
+      </c>
+      <c r="L15" s="16">
+        <v>28.65</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="O15" s="25">
+        <v>1</v>
+      </c>
+      <c r="P15" s="16">
+        <v>17.63</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>8.65</v>
+      </c>
+      <c r="R15" s="16">
+        <v>28.65</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" t="s" s="24">
+        <v>23</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16">
+        <v>-0.458</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0</v>
+      </c>
+      <c r="J16" s="16">
+        <v>-0.458</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="O16" s="25">
+        <v>0</v>
+      </c>
+      <c r="P16" s="16">
+        <v>-0.458</v>
+      </c>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" t="s" s="30">
+        <v>24</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16">
+        <v>20.07</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" t="s" s="31">
+        <v>24</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0</v>
+      </c>
+      <c r="J17" s="16">
+        <v>20.07</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" t="s" s="31">
+        <v>24</v>
+      </c>
+      <c r="O17" s="25">
+        <v>0</v>
+      </c>
+      <c r="P17" s="16">
+        <v>20.07</v>
+      </c>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="27"/>
+      <c r="B18" t="s" s="24">
+        <v>25</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="I18" s="25">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="O18" s="25">
+        <v>0</v>
+      </c>
+      <c r="P18" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" t="s" s="28">
+        <v>26</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" t="s" s="29">
+        <v>26</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" t="s" s="29">
+        <v>26</v>
+      </c>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" t="s" s="24">
+        <v>22</v>
+      </c>
+      <c r="C20" s="25">
+        <v>1</v>
+      </c>
+      <c r="D20" s="16">
+        <v>3.296</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>13.224</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="I20" s="25">
+        <v>1</v>
+      </c>
+      <c r="J20" s="16">
+        <v>3.262</v>
+      </c>
+      <c r="K20" s="16">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
+        <v>13.224</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="O20" s="25">
+        <v>1</v>
+      </c>
+      <c r="P20" s="16">
+        <v>3.296</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>0</v>
+      </c>
+      <c r="R20" s="16">
+        <v>13.224</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" t="s" s="24">
+        <v>23</v>
+      </c>
+      <c r="C21" s="25">
+        <v>1</v>
+      </c>
+      <c r="D21" s="16">
+        <v>6.821</v>
+      </c>
+      <c r="E21" s="16">
+        <v>-0.5</v>
+      </c>
+      <c r="F21" s="16">
+        <v>15</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="I21" s="25">
+        <v>1</v>
+      </c>
+      <c r="J21" s="16">
+        <v>7.852</v>
+      </c>
+      <c r="K21" s="16">
+        <v>5.871</v>
+      </c>
+      <c r="L21" s="16">
+        <v>7.871</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="O21" s="25">
+        <v>1</v>
+      </c>
+      <c r="P21" s="16">
+        <v>6.821</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>-0.5</v>
+      </c>
+      <c r="R21" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" t="s" s="30">
+        <v>24</v>
+      </c>
+      <c r="C22" s="25">
+        <v>1</v>
+      </c>
+      <c r="D22" s="16">
+        <v>31.11</v>
+      </c>
+      <c r="E22" s="16">
+        <v>15</v>
+      </c>
+      <c r="F22" s="16">
+        <v>40</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" t="s" s="31">
+        <v>24</v>
+      </c>
+      <c r="I22" s="25">
+        <v>1</v>
+      </c>
+      <c r="J22" s="16">
+        <v>33.39</v>
+      </c>
+      <c r="K22" s="16">
+        <v>32.94</v>
+      </c>
+      <c r="L22" s="16">
+        <v>34.94</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" t="s" s="31">
+        <v>24</v>
+      </c>
+      <c r="O22" s="25">
+        <v>1</v>
+      </c>
+      <c r="P22" s="16">
+        <v>31.11</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>15</v>
+      </c>
+      <c r="R22" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" t="s" s="24">
+        <v>25</v>
+      </c>
+      <c r="C23" s="25">
+        <v>1</v>
+      </c>
+      <c r="D23" s="16">
+        <v>31.05</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
+        <v>140</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="I23" s="25">
+        <v>1</v>
+      </c>
+      <c r="J23" s="16">
+        <v>36.96</v>
+      </c>
+      <c r="K23" s="16">
+        <v>0</v>
+      </c>
+      <c r="L23" s="16">
+        <v>140.55</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="O23" s="25">
+        <v>1</v>
+      </c>
+      <c r="P23" s="16">
+        <v>31.05</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>0</v>
+      </c>
+      <c r="R23" s="16">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" t="s" s="28">
+        <v>27</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" t="s" s="29">
+        <v>27</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" t="s" s="29">
+        <v>27</v>
+      </c>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" t="s" s="24">
+        <v>22</v>
+      </c>
+      <c r="C25" s="25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="16">
+        <v>6.588</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16">
+        <v>16.751</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="I25" s="25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="16">
+        <v>6.711</v>
+      </c>
+      <c r="K25" s="16">
+        <v>0</v>
+      </c>
+      <c r="L25" s="16">
+        <v>16.751</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="O25" s="25">
+        <v>1</v>
+      </c>
+      <c r="P25" s="16">
+        <v>6.588</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>0</v>
+      </c>
+      <c r="R25" s="16">
+        <v>16.751</v>
+      </c>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" t="s" s="24">
+        <v>23</v>
+      </c>
+      <c r="C26" s="25">
+        <v>1</v>
+      </c>
+      <c r="D26" s="16">
+        <v>2.734</v>
+      </c>
+      <c r="E26" s="16">
+        <v>-3</v>
+      </c>
+      <c r="F26" s="16">
+        <v>10</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="I26" s="25">
+        <v>1</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0.7286</v>
+      </c>
+      <c r="K26" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L26" s="16">
+        <v>1</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="O26" s="25">
+        <v>1</v>
+      </c>
+      <c r="P26" s="16">
+        <v>2.734</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>-3</v>
+      </c>
+      <c r="R26" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" t="s" s="30">
+        <v>24</v>
+      </c>
+      <c r="C27" s="25">
+        <v>1</v>
+      </c>
+      <c r="D27" s="16">
+        <v>66.42</v>
+      </c>
+      <c r="E27" s="16">
+        <v>60</v>
+      </c>
+      <c r="F27" s="16">
+        <v>70</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" t="s" s="31">
+        <v>24</v>
+      </c>
+      <c r="I27" s="25">
+        <v>1</v>
+      </c>
+      <c r="J27" s="16">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="K27" s="16">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="L27" s="16">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="N27" t="s" s="31">
+        <v>24</v>
+      </c>
+      <c r="O27" s="25">
+        <v>1</v>
+      </c>
+      <c r="P27" s="16">
+        <v>66.42</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>60</v>
+      </c>
+      <c r="R27" s="16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="19"/>
+      <c r="B28" t="s" s="24">
+        <v>25</v>
+      </c>
+      <c r="C28" s="25">
+        <v>1</v>
+      </c>
+      <c r="D28" s="16">
+        <v>108.1</v>
+      </c>
+      <c r="E28" s="16">
+        <v>10</v>
+      </c>
+      <c r="F28" s="16">
+        <v>200</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="I28" s="25">
+        <v>1</v>
+      </c>
+      <c r="J28" s="16">
+        <v>107.9</v>
+      </c>
+      <c r="K28" s="16">
         <v>8</v>
       </c>
-      <c r="C8" t="s" s="19">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s" s="20">
+      <c r="L28" s="16">
+        <v>208</v>
+      </c>
+      <c r="M28" s="15"/>
+      <c r="N28" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="O28" s="25">
+        <v>1</v>
+      </c>
+      <c r="P28" s="16">
+        <v>108.1</v>
+      </c>
+      <c r="Q28" s="16">
         <v>10</v>
       </c>
-      <c r="E8" t="s" s="20">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s" s="20">
-        <v>12</v>
-      </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s" s="21">
-        <v>14</v>
-      </c>
-      <c r="C9" s="22">
-        <v>0</v>
-      </c>
-      <c r="D9" s="23">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" t="s" s="21">
+      <c r="R28" s="16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="19"/>
+      <c r="B29" t="s" s="28">
+        <v>28</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" t="s" s="29">
+        <v>28</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" t="s" s="29">
+        <v>28</v>
+      </c>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" s="19"/>
+      <c r="B30" t="s" s="24">
+        <v>22</v>
+      </c>
+      <c r="C30" s="25">
+        <v>1</v>
+      </c>
+      <c r="D30" s="16">
+        <v>3.693</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
+        <v>13.657</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="I30" s="25">
+        <v>1</v>
+      </c>
+      <c r="J30" s="16">
+        <v>3.66</v>
+      </c>
+      <c r="K30" s="16">
+        <v>0</v>
+      </c>
+      <c r="L30" s="16">
+        <v>13.657</v>
+      </c>
+      <c r="M30" s="15"/>
+      <c r="N30" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="O30" s="25">
+        <v>1</v>
+      </c>
+      <c r="P30" s="16">
+        <v>3.693</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>0</v>
+      </c>
+      <c r="R30" s="16">
+        <v>13.657</v>
+      </c>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" s="19"/>
+      <c r="B31" t="s" s="24">
+        <v>23</v>
+      </c>
+      <c r="C31" s="25">
+        <v>1</v>
+      </c>
+      <c r="D31" s="16">
+        <v>11.91</v>
+      </c>
+      <c r="E31" s="16">
+        <v>-14</v>
+      </c>
+      <c r="F31" s="16">
         <v>15</v>
       </c>
-      <c r="C10" s="22">
-        <v>0</v>
-      </c>
-      <c r="D10" s="23">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" t="s" s="21">
-        <v>16</v>
-      </c>
-      <c r="C11" s="22">
-        <v>1</v>
-      </c>
-      <c r="D11" s="23">
-        <v>1.078</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="F11" s="23">
-        <v>1.1</v>
-      </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" t="s" s="21">
-        <v>17</v>
-      </c>
-      <c r="C12" s="22">
-        <v>0</v>
-      </c>
-      <c r="D12" s="23">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" t="s" s="21">
-        <v>18</v>
-      </c>
-      <c r="C13" s="22">
-        <v>0</v>
-      </c>
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" t="s" s="25">
-        <v>19</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" t="s" s="21">
-        <v>20</v>
-      </c>
-      <c r="C15" s="22">
-        <v>1</v>
-      </c>
-      <c r="D15" s="23">
-        <v>17.63</v>
-      </c>
-      <c r="E15" s="23">
-        <v>8.65</v>
-      </c>
-      <c r="F15" s="23">
-        <v>28.65</v>
-      </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" t="s" s="21">
-        <v>21</v>
-      </c>
-      <c r="C16" s="22">
-        <v>0</v>
-      </c>
-      <c r="D16" s="23">
-        <v>-0.458</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" t="s" s="26">
+      <c r="G31" s="15"/>
+      <c r="H31" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="I31" s="25">
+        <v>1</v>
+      </c>
+      <c r="J31" s="16">
+        <v>8.451000000000001</v>
+      </c>
+      <c r="K31" s="16">
+        <v>6.451</v>
+      </c>
+      <c r="L31" s="16">
+        <v>8.451000000000001</v>
+      </c>
+      <c r="M31" s="15"/>
+      <c r="N31" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="O31" s="25">
+        <v>1</v>
+      </c>
+      <c r="P31" s="16">
+        <v>11.91</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>-14</v>
+      </c>
+      <c r="R31" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" s="19"/>
+      <c r="B32" t="s" s="30">
+        <v>24</v>
+      </c>
+      <c r="C32" s="25">
+        <v>1</v>
+      </c>
+      <c r="D32" s="16">
+        <v>132.6</v>
+      </c>
+      <c r="E32" s="16">
+        <v>130</v>
+      </c>
+      <c r="F32" s="16">
+        <v>140</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" t="s" s="31">
+        <v>24</v>
+      </c>
+      <c r="I32" s="25">
+        <v>1</v>
+      </c>
+      <c r="J32" s="16">
+        <v>134.5</v>
+      </c>
+      <c r="K32" s="16">
+        <v>132.9</v>
+      </c>
+      <c r="L32" s="16">
+        <v>134.9</v>
+      </c>
+      <c r="M32" s="15"/>
+      <c r="N32" t="s" s="31">
+        <v>24</v>
+      </c>
+      <c r="O32" s="25">
+        <v>1</v>
+      </c>
+      <c r="P32" s="16">
+        <v>132.6</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>130</v>
+      </c>
+      <c r="R32" s="16">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" s="19"/>
+      <c r="B33" t="s" s="24">
+        <v>25</v>
+      </c>
+      <c r="C33" s="25">
+        <v>1</v>
+      </c>
+      <c r="D33" s="16">
+        <v>49.55</v>
+      </c>
+      <c r="E33" s="16">
+        <v>10</v>
+      </c>
+      <c r="F33" s="16">
+        <v>150</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="I33" s="25">
+        <v>1</v>
+      </c>
+      <c r="J33" s="16">
+        <v>49.54</v>
+      </c>
+      <c r="K33" s="16">
+        <v>0</v>
+      </c>
+      <c r="L33" s="16">
+        <v>149.49</v>
+      </c>
+      <c r="M33" s="15"/>
+      <c r="N33" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="O33" s="25">
+        <v>1</v>
+      </c>
+      <c r="P33" s="16">
+        <v>49.55</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>10</v>
+      </c>
+      <c r="R33" s="16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="19"/>
+      <c r="B34" t="s" s="28">
+        <v>29</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" t="s" s="29">
+        <v>29</v>
+      </c>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" t="s" s="29">
+        <v>29</v>
+      </c>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="19"/>
+      <c r="B35" t="s" s="24">
         <v>22</v>
       </c>
-      <c r="C17" s="22">
-        <v>0</v>
-      </c>
-      <c r="D17" s="23">
-        <v>20.07</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" t="s" s="21">
+      <c r="C35" s="25">
+        <v>0</v>
+      </c>
+      <c r="D35" s="16">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="I35" s="25">
+        <v>0</v>
+      </c>
+      <c r="J35" s="16">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="O35" s="25">
+        <v>0</v>
+      </c>
+      <c r="P35" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" s="19"/>
+      <c r="B36" t="s" s="24">
         <v>23</v>
       </c>
-      <c r="C18" s="22">
-        <v>0</v>
-      </c>
-      <c r="D18" s="23">
-        <v>0</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" t="s" s="25">
+      <c r="C36" s="25">
+        <v>0</v>
+      </c>
+      <c r="D36" s="16">
+        <v>0</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="I36" s="25">
+        <v>0</v>
+      </c>
+      <c r="J36" s="16">
+        <v>0</v>
+      </c>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="O36" s="25">
+        <v>0</v>
+      </c>
+      <c r="P36" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" s="19"/>
+      <c r="B37" t="s" s="30">
         <v>24</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" t="s" s="21">
-        <v>20</v>
-      </c>
-      <c r="C20" s="22">
-        <v>1</v>
-      </c>
-      <c r="D20" s="23">
-        <v>3.296</v>
-      </c>
-      <c r="E20" s="23">
-        <v>0</v>
-      </c>
-      <c r="F20" s="23">
-        <v>13.224</v>
-      </c>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" t="s" s="21">
-        <v>21</v>
-      </c>
-      <c r="C21" s="22">
-        <v>1</v>
-      </c>
-      <c r="D21" s="23">
-        <v>6.821</v>
-      </c>
-      <c r="E21" s="23">
-        <v>-0.5</v>
-      </c>
-      <c r="F21" s="23">
-        <v>15</v>
-      </c>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="C22" s="22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="23">
-        <v>31.11</v>
-      </c>
-      <c r="E22" s="23">
-        <v>15</v>
-      </c>
-      <c r="F22" s="23">
-        <v>40</v>
-      </c>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" t="s" s="21">
-        <v>23</v>
-      </c>
-      <c r="C23" s="22">
-        <v>1</v>
-      </c>
-      <c r="D23" s="23">
-        <v>31.05</v>
-      </c>
-      <c r="E23" s="23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="23">
-        <v>140</v>
-      </c>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" t="s" s="25">
+      <c r="C37" s="25">
+        <v>0</v>
+      </c>
+      <c r="D37" s="16">
+        <v>0</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" t="s" s="31">
+        <v>24</v>
+      </c>
+      <c r="I37" s="25">
+        <v>0</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" t="s" s="31">
+        <v>24</v>
+      </c>
+      <c r="O37" s="25">
+        <v>0</v>
+      </c>
+      <c r="P37" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" s="19"/>
+      <c r="B38" t="s" s="24">
         <v>25</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" t="s" s="21">
-        <v>20</v>
-      </c>
-      <c r="C25" s="22">
-        <v>1</v>
-      </c>
-      <c r="D25" s="23">
-        <v>6.588</v>
-      </c>
-      <c r="E25" s="23">
-        <v>0</v>
-      </c>
-      <c r="F25" s="23">
-        <v>16.751</v>
-      </c>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" t="s" s="21">
-        <v>21</v>
-      </c>
-      <c r="C26" s="22">
-        <v>1</v>
-      </c>
-      <c r="D26" s="23">
-        <v>2.734</v>
-      </c>
-      <c r="E26" s="23">
-        <v>-3</v>
-      </c>
-      <c r="F26" s="23">
-        <v>10</v>
-      </c>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="16"/>
-      <c r="B27" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="C27" s="22">
-        <v>1</v>
-      </c>
-      <c r="D27" s="23">
-        <v>66.42</v>
-      </c>
-      <c r="E27" s="23">
-        <v>60</v>
-      </c>
-      <c r="F27" s="23">
-        <v>70</v>
-      </c>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="16"/>
-      <c r="B28" t="s" s="21">
-        <v>23</v>
-      </c>
-      <c r="C28" s="22">
-        <v>1</v>
-      </c>
-      <c r="D28" s="23">
-        <v>108.1</v>
-      </c>
-      <c r="E28" s="23">
-        <v>10</v>
-      </c>
-      <c r="F28" s="23">
-        <v>200</v>
-      </c>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="16"/>
-      <c r="B29" t="s" s="25">
-        <v>26</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="16"/>
-      <c r="B30" t="s" s="21">
-        <v>20</v>
-      </c>
-      <c r="C30" s="22">
-        <v>1</v>
-      </c>
-      <c r="D30" s="23">
-        <v>3.693</v>
-      </c>
-      <c r="E30" s="23">
-        <v>0</v>
-      </c>
-      <c r="F30" s="23">
-        <v>13.657</v>
-      </c>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="16"/>
-      <c r="B31" t="s" s="21">
-        <v>21</v>
-      </c>
-      <c r="C31" s="22">
-        <v>1</v>
-      </c>
-      <c r="D31" s="23">
-        <v>11.91</v>
-      </c>
-      <c r="E31" s="23">
-        <v>-14</v>
-      </c>
-      <c r="F31" s="23">
-        <v>15</v>
-      </c>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="16"/>
-      <c r="B32" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="C32" s="22">
-        <v>1</v>
-      </c>
-      <c r="D32" s="23">
-        <v>132.6</v>
-      </c>
-      <c r="E32" s="23">
-        <v>130</v>
-      </c>
-      <c r="F32" s="23">
-        <v>140</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="16"/>
-      <c r="B33" t="s" s="21">
-        <v>23</v>
-      </c>
-      <c r="C33" s="22">
-        <v>1</v>
-      </c>
-      <c r="D33" s="23">
-        <v>49.55</v>
-      </c>
-      <c r="E33" s="23">
-        <v>10</v>
-      </c>
-      <c r="F33" s="23">
-        <v>150</v>
-      </c>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" t="s" s="25">
-        <v>27</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="16"/>
-      <c r="B35" t="s" s="21">
-        <v>20</v>
-      </c>
-      <c r="C35" s="22">
-        <v>0</v>
-      </c>
-      <c r="D35" s="23">
-        <v>0</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="16"/>
-      <c r="B36" t="s" s="21">
-        <v>21</v>
-      </c>
-      <c r="C36" s="22">
-        <v>0</v>
-      </c>
-      <c r="D36" s="23">
-        <v>0</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="C37" s="22">
-        <v>0</v>
-      </c>
-      <c r="D37" s="23">
-        <v>0</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="16"/>
-      <c r="B38" t="s" s="21">
-        <v>23</v>
-      </c>
-      <c r="C38" s="22">
-        <v>0</v>
-      </c>
-      <c r="D38" s="23">
-        <v>0</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="C38" s="25">
+        <v>0</v>
+      </c>
+      <c r="D38" s="16">
+        <v>0</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="I38" s="25">
+        <v>0</v>
+      </c>
+      <c r="J38" s="16">
+        <v>0</v>
+      </c>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="O38" s="25">
+        <v>0</v>
+      </c>
+      <c r="P38" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="16"/>
-      <c r="B39" t="s" s="18">
-        <v>28</v>
-      </c>
-      <c r="C39" s="22">
-        <v>0</v>
-      </c>
-      <c r="D39" s="23">
+      <c r="A39" s="19"/>
+      <c r="B39" t="s" s="21">
+        <v>30</v>
+      </c>
+      <c r="C39" s="25">
+        <v>0</v>
+      </c>
+      <c r="D39" s="16">
         <v>188.7</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" t="s" s="23">
+        <v>30</v>
+      </c>
+      <c r="I39" s="25">
+        <v>0</v>
+      </c>
+      <c r="J39" s="16">
+        <v>188.7</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" t="s" s="23">
+        <v>30</v>
+      </c>
+      <c r="O39" s="25">
+        <v>0</v>
+      </c>
+      <c r="P39" s="16">
+        <v>188.7</v>
+      </c>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="16">
+    <mergeCell ref="A1:R1"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B29:F29"/>
     <mergeCell ref="B34:F34"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N34:R34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/Analysis/X-Ray Summary.xlsx
+++ b/Analysis/X-Ray Summary.xlsx
@@ -6,12 +6,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 2" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>Table 1</t>
   </si>
@@ -176,14 +177,32 @@
   <si>
     <t>Stack Thickness</t>
   </si>
+  <si>
+    <t>Silicon/Oxide</t>
+  </si>
+  <si>
+    <t>Oxide/Permalloy</t>
+  </si>
+  <si>
+    <t>Permalloy/Pt</t>
+  </si>
+  <si>
+    <t>Platinum/Air</t>
+  </si>
+  <si>
+    <t>Interfacial Layer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="0.00000"/>
+    <numFmt numFmtId="60" formatCode="0.0##########E+00"/>
+    <numFmt numFmtId="61" formatCode="0.0####E+00"/>
+    <numFmt numFmtId="62" formatCode="0.0###########E+00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -361,7 +380,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -443,6 +462,12 @@
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="60" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="61" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -457,6 +482,18 @@
     </xf>
     <xf numFmtId="49" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="62" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1608,7 +1645,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="7">
-        <v>21.1486</v>
+        <v>18.4954</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -1637,7 +1674,7 @@
       </c>
       <c r="B4" s="13">
         <f>SUM(C9:C40)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -1696,7 +1733,7 @@
       </c>
       <c r="B6" s="17">
         <f>(B5-B4)*B3+B4*LN(B5)</f>
-        <v>7675.249497875010</v>
+        <v>6710.176876294660</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -1839,13 +1876,17 @@
         <v>17</v>
       </c>
       <c r="C10" s="25">
-        <v>0</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="27">
+        <v>2.664e-08</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28">
+        <v>1e-05</v>
+      </c>
       <c r="G10" s="15"/>
       <c r="H10" t="s" s="26">
         <v>17</v>
@@ -1880,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="16">
-        <v>1.078</v>
+        <v>1.087</v>
       </c>
       <c r="E11" s="16">
         <v>0.95</v>
@@ -1922,7 +1963,7 @@
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="27"/>
+      <c r="A12" s="29"/>
       <c r="B12" t="s" s="24">
         <v>19</v>
       </c>
@@ -1999,7 +2040,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="B14" t="s" s="28">
+      <c r="B14" t="s" s="30">
         <v>21</v>
       </c>
       <c r="C14" s="15"/>
@@ -2007,7 +2048,7 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
-      <c r="H14" t="s" s="29">
+      <c r="H14" t="s" s="31">
         <v>21</v>
       </c>
       <c r="I14" s="15"/>
@@ -2015,7 +2056,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
-      <c r="N14" t="s" s="29">
+      <c r="N14" t="s" s="31">
         <v>21</v>
       </c>
       <c r="O14" s="15"/>
@@ -2032,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="16">
-        <v>17.63</v>
+        <v>17.33</v>
       </c>
       <c r="E15" s="16">
         <v>8.65</v>
@@ -2113,7 +2154,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="19"/>
-      <c r="B17" t="s" s="30">
+      <c r="B17" t="s" s="32">
         <v>24</v>
       </c>
       <c r="C17" s="25">
@@ -2125,7 +2166,7 @@
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" t="s" s="31">
+      <c r="H17" t="s" s="33">
         <v>24</v>
       </c>
       <c r="I17" s="25">
@@ -2137,7 +2178,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
-      <c r="N17" t="s" s="31">
+      <c r="N17" t="s" s="33">
         <v>24</v>
       </c>
       <c r="O17" s="25">
@@ -2150,7 +2191,7 @@
       <c r="R17" s="15"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="27"/>
+      <c r="A18" s="29"/>
       <c r="B18" t="s" s="24">
         <v>25</v>
       </c>
@@ -2189,7 +2230,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="19"/>
-      <c r="B19" t="s" s="28">
+      <c r="B19" t="s" s="30">
         <v>26</v>
       </c>
       <c r="C19" s="15"/>
@@ -2197,7 +2238,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
-      <c r="H19" t="s" s="29">
+      <c r="H19" t="s" s="31">
         <v>26</v>
       </c>
       <c r="I19" s="15"/>
@@ -2205,7 +2246,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
-      <c r="N19" t="s" s="29">
+      <c r="N19" t="s" s="31">
         <v>26</v>
       </c>
       <c r="O19" s="15"/>
@@ -2222,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="16">
-        <v>3.296</v>
+        <v>3.322</v>
       </c>
       <c r="E20" s="16">
         <v>0</v>
@@ -2272,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="16">
-        <v>6.821</v>
+        <v>6.436</v>
       </c>
       <c r="E21" s="16">
         <v>-0.5</v>
@@ -2315,14 +2356,14 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="19"/>
-      <c r="B22" t="s" s="30">
+      <c r="B22" t="s" s="32">
         <v>24</v>
       </c>
       <c r="C22" s="25">
         <v>1</v>
       </c>
       <c r="D22" s="16">
-        <v>31.11</v>
+        <v>30.37</v>
       </c>
       <c r="E22" s="16">
         <v>15</v>
@@ -2331,7 +2372,7 @@
         <v>40</v>
       </c>
       <c r="G22" s="15"/>
-      <c r="H22" t="s" s="31">
+      <c r="H22" t="s" s="33">
         <v>24</v>
       </c>
       <c r="I22" s="25">
@@ -2347,7 +2388,7 @@
         <v>34.94</v>
       </c>
       <c r="M22" s="15"/>
-      <c r="N22" t="s" s="31">
+      <c r="N22" t="s" s="33">
         <v>24</v>
       </c>
       <c r="O22" s="25">
@@ -2372,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="16">
-        <v>31.05</v>
+        <v>29.32</v>
       </c>
       <c r="E23" s="16">
         <v>0</v>
@@ -2415,7 +2456,7 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" s="19"/>
-      <c r="B24" t="s" s="28">
+      <c r="B24" t="s" s="30">
         <v>27</v>
       </c>
       <c r="C24" s="15"/>
@@ -2423,7 +2464,7 @@
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" t="s" s="29">
+      <c r="H24" t="s" s="31">
         <v>27</v>
       </c>
       <c r="I24" s="15"/>
@@ -2431,7 +2472,7 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" t="s" s="29">
+      <c r="N24" t="s" s="31">
         <v>27</v>
       </c>
       <c r="O24" s="15"/>
@@ -2448,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="16">
-        <v>6.588</v>
+        <v>6.603</v>
       </c>
       <c r="E25" s="16">
         <v>0</v>
@@ -2498,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="16">
-        <v>2.734</v>
+        <v>2.904</v>
       </c>
       <c r="E26" s="16">
         <v>-3</v>
@@ -2541,14 +2582,14 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" s="19"/>
-      <c r="B27" t="s" s="30">
+      <c r="B27" t="s" s="32">
         <v>24</v>
       </c>
       <c r="C27" s="25">
         <v>1</v>
       </c>
       <c r="D27" s="16">
-        <v>66.42</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="E27" s="16">
         <v>60</v>
@@ -2557,7 +2598,7 @@
         <v>70</v>
       </c>
       <c r="G27" s="15"/>
-      <c r="H27" t="s" s="31">
+      <c r="H27" t="s" s="33">
         <v>24</v>
       </c>
       <c r="I27" s="25">
@@ -2573,7 +2614,7 @@
         <v>67.48999999999999</v>
       </c>
       <c r="M27" s="15"/>
-      <c r="N27" t="s" s="31">
+      <c r="N27" t="s" s="33">
         <v>24</v>
       </c>
       <c r="O27" s="25">
@@ -2641,7 +2682,7 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" s="19"/>
-      <c r="B29" t="s" s="28">
+      <c r="B29" t="s" s="30">
         <v>28</v>
       </c>
       <c r="C29" s="15"/>
@@ -2649,7 +2690,7 @@
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
-      <c r="H29" t="s" s="29">
+      <c r="H29" t="s" s="31">
         <v>28</v>
       </c>
       <c r="I29" s="15"/>
@@ -2657,7 +2698,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29" t="s" s="29">
+      <c r="N29" t="s" s="31">
         <v>28</v>
       </c>
       <c r="O29" s="15"/>
@@ -2674,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="16">
-        <v>3.693</v>
+        <v>3.711</v>
       </c>
       <c r="E30" s="16">
         <v>0</v>
@@ -2724,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="16">
-        <v>11.91</v>
+        <v>12.24</v>
       </c>
       <c r="E31" s="16">
         <v>-14</v>
@@ -2767,14 +2808,14 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" s="19"/>
-      <c r="B32" t="s" s="30">
+      <c r="B32" t="s" s="32">
         <v>24</v>
       </c>
       <c r="C32" s="25">
         <v>1</v>
       </c>
       <c r="D32" s="16">
-        <v>132.6</v>
+        <v>132.5</v>
       </c>
       <c r="E32" s="16">
         <v>130</v>
@@ -2783,7 +2824,7 @@
         <v>140</v>
       </c>
       <c r="G32" s="15"/>
-      <c r="H32" t="s" s="31">
+      <c r="H32" t="s" s="33">
         <v>24</v>
       </c>
       <c r="I32" s="25">
@@ -2799,7 +2840,7 @@
         <v>134.9</v>
       </c>
       <c r="M32" s="15"/>
-      <c r="N32" t="s" s="31">
+      <c r="N32" t="s" s="33">
         <v>24</v>
       </c>
       <c r="O32" s="25">
@@ -2824,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="16">
-        <v>49.55</v>
+        <v>49.54</v>
       </c>
       <c r="E33" s="16">
         <v>10</v>
@@ -2867,7 +2908,7 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" s="19"/>
-      <c r="B34" t="s" s="28">
+      <c r="B34" t="s" s="30">
         <v>29</v>
       </c>
       <c r="C34" s="15"/>
@@ -2875,7 +2916,7 @@
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
-      <c r="H34" t="s" s="29">
+      <c r="H34" t="s" s="31">
         <v>29</v>
       </c>
       <c r="I34" s="15"/>
@@ -2883,7 +2924,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
-      <c r="N34" t="s" s="29">
+      <c r="N34" t="s" s="31">
         <v>29</v>
       </c>
       <c r="O34" s="15"/>
@@ -2969,7 +3010,7 @@
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" s="19"/>
-      <c r="B37" t="s" s="30">
+      <c r="B37" t="s" s="32">
         <v>24</v>
       </c>
       <c r="C37" s="25">
@@ -2981,7 +3022,7 @@
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
-      <c r="H37" t="s" s="31">
+      <c r="H37" t="s" s="33">
         <v>24</v>
       </c>
       <c r="I37" s="25">
@@ -2993,7 +3034,7 @@
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
-      <c r="N37" t="s" s="31">
+      <c r="N37" t="s" s="33">
         <v>24</v>
       </c>
       <c r="O37" s="25">
@@ -3126,4 +3167,2886 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:AD44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="6" width="16.3516" style="34" customWidth="1"/>
+    <col min="7" max="7" width="3.35156" style="34" customWidth="1"/>
+    <col min="8" max="12" width="16.3516" style="34" customWidth="1"/>
+    <col min="13" max="13" width="3.35156" style="34" customWidth="1"/>
+    <col min="14" max="18" width="16.3516" style="34" customWidth="1"/>
+    <col min="19" max="19" width="3.35156" style="34" customWidth="1"/>
+    <col min="20" max="24" width="16.3516" style="34" customWidth="1"/>
+    <col min="25" max="25" width="3.35156" style="34" customWidth="1"/>
+    <col min="26" max="30" width="16.3516" style="34" customWidth="1"/>
+    <col min="31" max="16384" width="16.3516" style="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="U2" s="4"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="6">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7">
+        <v>18.4954</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11">
+        <v>15.9217</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="11">
+        <v>13.6031</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="11">
+        <v>8.38119</v>
+      </c>
+      <c r="U3" s="8"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="11">
+        <v>6.7668</v>
+      </c>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13">
+        <f>SUM(C9:C40)</f>
+        <v>15</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16">
+        <f>SUM(I3:I44)</f>
+        <v>19</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="16">
+        <f>SUM(O9:O40)</f>
+        <v>19</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="16">
+        <f>SUM(U9:U40)</f>
+        <v>19</v>
+      </c>
+      <c r="U4" s="14"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="16">
+        <f>SUM(AA9:AA40)</f>
+        <v>19</v>
+      </c>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="B5" s="13">
+        <v>373</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16">
+        <v>373</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16">
+        <v>373</v>
+      </c>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="16">
+        <v>373</v>
+      </c>
+      <c r="U5" s="14"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="16">
+        <v>373</v>
+      </c>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="B6" s="17">
+        <f>(B5-B4)*B3+B4*LN(B5)</f>
+        <v>6710.176876294660</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="18">
+        <f>(H5-H4)*H3+H4*LN(H5)</f>
+        <v>5748.791789973230</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="18">
+        <f>(N5-N4)*N3+N4*LN(N5)</f>
+        <v>4928.007389973230</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="18">
+        <f>(T5-T4)*T3+T4*LN(T5)</f>
+        <v>3079.451249973230</v>
+      </c>
+      <c r="U6" s="14"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="18">
+        <f>(Z5-Z4)*Z3+Z4*LN(Z5)</f>
+        <v>2507.957189973230</v>
+      </c>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s" s="21">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s" s="22">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s" s="23">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s" s="23">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" t="s" s="23">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s" s="22">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s" s="23">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s" s="23">
+        <v>13</v>
+      </c>
+      <c r="L8" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="M8" s="35"/>
+      <c r="N8" t="s" s="23">
+        <v>10</v>
+      </c>
+      <c r="O8" t="s" s="22">
+        <v>11</v>
+      </c>
+      <c r="P8" t="s" s="23">
+        <v>12</v>
+      </c>
+      <c r="Q8" t="s" s="23">
+        <v>13</v>
+      </c>
+      <c r="R8" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="S8" s="35"/>
+      <c r="T8" t="s" s="23">
+        <v>10</v>
+      </c>
+      <c r="U8" t="s" s="22">
+        <v>11</v>
+      </c>
+      <c r="V8" t="s" s="23">
+        <v>12</v>
+      </c>
+      <c r="W8" t="s" s="23">
+        <v>13</v>
+      </c>
+      <c r="X8" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="Y8" s="35"/>
+      <c r="Z8" t="s" s="23">
+        <v>10</v>
+      </c>
+      <c r="AA8" t="s" s="22">
+        <v>11</v>
+      </c>
+      <c r="AB8" t="s" s="23">
+        <v>12</v>
+      </c>
+      <c r="AC8" t="s" s="23">
+        <v>13</v>
+      </c>
+      <c r="AD8" t="s" s="23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <v>1</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="O9" s="25">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="U9" s="25">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16">
+        <v>1</v>
+      </c>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="AA9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" t="s" s="24">
+        <v>17</v>
+      </c>
+      <c r="C10" s="25">
+        <v>1</v>
+      </c>
+      <c r="D10" s="27">
+        <v>2.664e-08</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28">
+        <v>1e-05</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="I10" s="25">
+        <v>1</v>
+      </c>
+      <c r="J10" s="27">
+        <v>1.974e-08</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10" s="28">
+        <v>1e-05</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="O10" s="25">
+        <v>1</v>
+      </c>
+      <c r="P10" s="27">
+        <v>2.465e-08</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>0</v>
+      </c>
+      <c r="R10" s="28">
+        <v>1e-05</v>
+      </c>
+      <c r="S10" s="15"/>
+      <c r="T10" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="U10" s="25">
+        <v>1</v>
+      </c>
+      <c r="V10" s="27">
+        <v>2.014e-08</v>
+      </c>
+      <c r="W10" s="16">
+        <v>0</v>
+      </c>
+      <c r="X10" s="28">
+        <v>1e-05</v>
+      </c>
+      <c r="Y10" s="15"/>
+      <c r="Z10" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="AA10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="36">
+        <v>8.249e-09</v>
+      </c>
+      <c r="AC10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="28">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" t="s" s="24">
+        <v>18</v>
+      </c>
+      <c r="C11" s="25">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1.087</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1.1</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="I11" s="25">
+        <v>1</v>
+      </c>
+      <c r="J11" s="16">
+        <v>1.05</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="L11" s="16">
+        <v>1.1</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="O11" s="25">
+        <v>1</v>
+      </c>
+      <c r="P11" s="16">
+        <v>1.05</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="R11" s="16">
+        <v>1.05</v>
+      </c>
+      <c r="S11" s="15"/>
+      <c r="T11" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="U11" s="25">
+        <v>1</v>
+      </c>
+      <c r="V11" s="16">
+        <v>0.972</v>
+      </c>
+      <c r="W11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="X11" s="16">
+        <v>1.05</v>
+      </c>
+      <c r="Y11" s="15"/>
+      <c r="Z11" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="AA11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>1.016</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AD11" s="16">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" t="s" s="24">
+        <v>19</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="O12" s="25">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="U12" s="25">
+        <v>0</v>
+      </c>
+      <c r="V12" s="16">
+        <v>0</v>
+      </c>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="AA12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="19"/>
+      <c r="B13" t="s" s="24">
+        <v>20</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="O13" s="25">
+        <v>0</v>
+      </c>
+      <c r="P13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="U13" s="25">
+        <v>0</v>
+      </c>
+      <c r="V13" s="16">
+        <v>0</v>
+      </c>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="AA13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" t="s" s="30">
+        <v>21</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" t="s" s="31">
+        <v>21</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="37"/>
+      <c r="N14" t="s" s="31">
+        <v>21</v>
+      </c>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="37"/>
+      <c r="T14" t="s" s="31">
+        <v>21</v>
+      </c>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" t="s" s="31">
+        <v>21</v>
+      </c>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" t="s" s="24">
+        <v>22</v>
+      </c>
+      <c r="C15" s="25">
+        <v>1</v>
+      </c>
+      <c r="D15" s="16">
+        <v>17.33</v>
+      </c>
+      <c r="E15" s="16">
+        <v>8.65</v>
+      </c>
+      <c r="F15" s="16">
+        <v>28.65</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="I15" s="25">
+        <v>1</v>
+      </c>
+      <c r="J15" s="16">
+        <v>15.1</v>
+      </c>
+      <c r="K15" s="16">
+        <v>8.65</v>
+      </c>
+      <c r="L15" s="16">
+        <v>28.65</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="O15" s="25">
+        <v>1</v>
+      </c>
+      <c r="P15" s="16">
+        <v>12.59</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>8.65</v>
+      </c>
+      <c r="R15" s="16">
+        <v>28.65</v>
+      </c>
+      <c r="S15" s="15"/>
+      <c r="T15" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="U15" s="25">
+        <v>1</v>
+      </c>
+      <c r="V15" s="16">
+        <v>8.699</v>
+      </c>
+      <c r="W15" s="16">
+        <v>8.65</v>
+      </c>
+      <c r="X15" s="16">
+        <v>28.65</v>
+      </c>
+      <c r="Y15" s="15"/>
+      <c r="Z15" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="AA15" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="16">
+        <v>13.37</v>
+      </c>
+      <c r="AC15" s="16">
+        <v>8.65</v>
+      </c>
+      <c r="AD15" s="16">
+        <v>28.65</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" t="s" s="24">
+        <v>23</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16">
+        <v>-0.458</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0</v>
+      </c>
+      <c r="J16" s="16">
+        <v>-0.458</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="O16" s="25">
+        <v>0</v>
+      </c>
+      <c r="P16" s="16">
+        <v>0.458</v>
+      </c>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="U16" s="25">
+        <v>0</v>
+      </c>
+      <c r="V16" s="16">
+        <v>0.458</v>
+      </c>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="AA16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="16">
+        <v>0.458</v>
+      </c>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" t="s" s="32">
+        <v>24</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16">
+        <v>20.07</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0</v>
+      </c>
+      <c r="J17" s="16">
+        <v>20.07</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="O17" s="25">
+        <v>0</v>
+      </c>
+      <c r="P17" s="16">
+        <v>20.07</v>
+      </c>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="U17" s="25">
+        <v>0</v>
+      </c>
+      <c r="V17" s="16">
+        <v>20.07</v>
+      </c>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="AA17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="16">
+        <v>20.07</v>
+      </c>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" t="s" s="24">
+        <v>25</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="I18" s="25">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="O18" s="25">
+        <v>0</v>
+      </c>
+      <c r="P18" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="U18" s="25">
+        <v>0</v>
+      </c>
+      <c r="V18" s="16">
+        <v>0</v>
+      </c>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="AA18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" t="s" s="30">
+        <v>26</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" t="s" s="31">
+        <v>35</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="37"/>
+      <c r="N19" t="s" s="31">
+        <v>26</v>
+      </c>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="37"/>
+      <c r="T19" t="s" s="31">
+        <v>26</v>
+      </c>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" t="s" s="31">
+        <v>26</v>
+      </c>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" t="s" s="24">
+        <v>22</v>
+      </c>
+      <c r="C20" s="25">
+        <v>1</v>
+      </c>
+      <c r="D20" s="16">
+        <v>3.322</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>13.224</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="I20" s="25">
+        <v>1</v>
+      </c>
+      <c r="J20" s="16">
+        <v>2.721</v>
+      </c>
+      <c r="K20" s="16">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
+        <v>50</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="O20" s="25">
+        <v>1</v>
+      </c>
+      <c r="P20" s="16">
+        <v>3.268</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>0</v>
+      </c>
+      <c r="R20" s="16">
+        <v>13.224</v>
+      </c>
+      <c r="S20" s="15"/>
+      <c r="T20" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="U20" s="25">
+        <v>1</v>
+      </c>
+      <c r="V20" s="16">
+        <v>3.276</v>
+      </c>
+      <c r="W20" s="16">
+        <v>0</v>
+      </c>
+      <c r="X20" s="16">
+        <v>13.224</v>
+      </c>
+      <c r="Y20" s="15"/>
+      <c r="Z20" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="AA20" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="16">
+        <v>3.425</v>
+      </c>
+      <c r="AC20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="16">
+        <v>13.224</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" t="s" s="24">
+        <v>23</v>
+      </c>
+      <c r="C21" s="25">
+        <v>1</v>
+      </c>
+      <c r="D21" s="16">
+        <v>6.436</v>
+      </c>
+      <c r="E21" s="16">
+        <v>-0.5</v>
+      </c>
+      <c r="F21" s="16">
+        <v>15</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="I21" s="25">
+        <v>1</v>
+      </c>
+      <c r="J21" s="16">
+        <v>25.73</v>
+      </c>
+      <c r="K21" s="16">
+        <v>-0.5</v>
+      </c>
+      <c r="L21" s="16">
+        <v>50</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="O21" s="25">
+        <v>1</v>
+      </c>
+      <c r="P21" s="16">
+        <v>0.78</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>-0.5</v>
+      </c>
+      <c r="R21" s="16">
+        <v>50</v>
+      </c>
+      <c r="S21" s="15"/>
+      <c r="T21" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="U21" s="25">
+        <v>1</v>
+      </c>
+      <c r="V21" s="16">
+        <v>-0.43</v>
+      </c>
+      <c r="W21" s="16">
+        <v>-0.5</v>
+      </c>
+      <c r="X21" s="16">
+        <v>15</v>
+      </c>
+      <c r="Y21" s="15"/>
+      <c r="Z21" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="AA21" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="16">
+        <v>6.255</v>
+      </c>
+      <c r="AC21" s="16">
+        <v>-0.5</v>
+      </c>
+      <c r="AD21" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" t="s" s="32">
+        <v>24</v>
+      </c>
+      <c r="C22" s="25">
+        <v>1</v>
+      </c>
+      <c r="D22" s="16">
+        <v>30.37</v>
+      </c>
+      <c r="E22" s="16">
+        <v>15</v>
+      </c>
+      <c r="F22" s="16">
+        <v>40</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="I22" s="25">
+        <v>1</v>
+      </c>
+      <c r="J22" s="16">
+        <v>28.57</v>
+      </c>
+      <c r="K22" s="16">
+        <v>-10</v>
+      </c>
+      <c r="L22" s="16">
+        <v>40</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="O22" s="25">
+        <v>1</v>
+      </c>
+      <c r="P22" s="16">
+        <v>26.51</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>15</v>
+      </c>
+      <c r="R22" s="16">
+        <v>40</v>
+      </c>
+      <c r="S22" s="15"/>
+      <c r="T22" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="U22" s="25">
+        <v>1</v>
+      </c>
+      <c r="V22" s="16">
+        <v>23.07</v>
+      </c>
+      <c r="W22" s="16">
+        <v>15</v>
+      </c>
+      <c r="X22" s="16">
+        <v>40</v>
+      </c>
+      <c r="Y22" s="15"/>
+      <c r="Z22" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="AA22" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="16">
+        <v>24.27</v>
+      </c>
+      <c r="AC22" s="16">
+        <v>15</v>
+      </c>
+      <c r="AD22" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" t="s" s="24">
+        <v>25</v>
+      </c>
+      <c r="C23" s="25">
+        <v>1</v>
+      </c>
+      <c r="D23" s="16">
+        <v>29.32</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
+        <v>140</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="I23" s="25">
+        <v>1</v>
+      </c>
+      <c r="J23" s="16">
+        <v>39.45</v>
+      </c>
+      <c r="K23" s="16">
+        <v>0</v>
+      </c>
+      <c r="L23" s="16">
+        <v>140</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="O23" s="25">
+        <v>1</v>
+      </c>
+      <c r="P23" s="16">
+        <v>27.91</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>0</v>
+      </c>
+      <c r="R23" s="16">
+        <v>140</v>
+      </c>
+      <c r="S23" s="15"/>
+      <c r="T23" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="U23" s="25">
+        <v>1</v>
+      </c>
+      <c r="V23" s="16">
+        <v>27.8</v>
+      </c>
+      <c r="W23" s="16">
+        <v>0</v>
+      </c>
+      <c r="X23" s="16">
+        <v>140</v>
+      </c>
+      <c r="Y23" s="15"/>
+      <c r="Z23" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="AA23" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="16">
+        <v>38.22</v>
+      </c>
+      <c r="AC23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="16">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" t="s" s="30">
+        <v>27</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" t="s" s="31">
+        <v>26</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="37"/>
+      <c r="N24" t="s" s="31">
+        <v>35</v>
+      </c>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="37"/>
+      <c r="T24" t="s" s="31">
+        <v>27</v>
+      </c>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" t="s" s="31">
+        <v>27</v>
+      </c>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" t="s" s="24">
+        <v>22</v>
+      </c>
+      <c r="C25" s="25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="16">
+        <v>6.603</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16">
+        <v>16.751</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="I25" s="25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="16">
+        <v>4.582</v>
+      </c>
+      <c r="K25" s="16">
+        <v>0</v>
+      </c>
+      <c r="L25" s="16">
+        <v>13.224</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="O25" s="25">
+        <v>1</v>
+      </c>
+      <c r="P25" s="16">
+        <v>11.65</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>0</v>
+      </c>
+      <c r="R25" s="16">
+        <v>50</v>
+      </c>
+      <c r="S25" s="15"/>
+      <c r="T25" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="U25" s="25">
+        <v>1</v>
+      </c>
+      <c r="V25" s="16">
+        <v>6.214</v>
+      </c>
+      <c r="W25" s="16">
+        <v>0</v>
+      </c>
+      <c r="X25" s="16">
+        <v>16.751</v>
+      </c>
+      <c r="Y25" s="15"/>
+      <c r="Z25" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="AA25" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="16">
+        <v>6.561</v>
+      </c>
+      <c r="AC25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="16">
+        <v>16.751</v>
+      </c>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" t="s" s="24">
+        <v>23</v>
+      </c>
+      <c r="C26" s="25">
+        <v>1</v>
+      </c>
+      <c r="D26" s="16">
+        <v>2.904</v>
+      </c>
+      <c r="E26" s="16">
+        <v>-3</v>
+      </c>
+      <c r="F26" s="16">
+        <v>10</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="I26" s="25">
+        <v>1</v>
+      </c>
+      <c r="J26" s="16">
+        <v>-0.18</v>
+      </c>
+      <c r="K26" s="16">
+        <v>-0.5</v>
+      </c>
+      <c r="L26" s="16">
+        <v>15</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="O26" s="25">
+        <v>1</v>
+      </c>
+      <c r="P26" s="16">
+        <v>-0.093</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>-0.5</v>
+      </c>
+      <c r="R26" s="16">
+        <v>50</v>
+      </c>
+      <c r="S26" s="15"/>
+      <c r="T26" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="U26" s="25">
+        <v>1</v>
+      </c>
+      <c r="V26" s="16">
+        <v>1.748</v>
+      </c>
+      <c r="W26" s="16">
+        <v>-3</v>
+      </c>
+      <c r="X26" s="16">
+        <v>10</v>
+      </c>
+      <c r="Y26" s="15"/>
+      <c r="Z26" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="AA26" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="16">
+        <v>3</v>
+      </c>
+      <c r="AC26" s="16">
+        <v>-3</v>
+      </c>
+      <c r="AD26" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" t="s" s="32">
+        <v>24</v>
+      </c>
+      <c r="C27" s="25">
+        <v>1</v>
+      </c>
+      <c r="D27" s="16">
+        <v>66.06999999999999</v>
+      </c>
+      <c r="E27" s="16">
+        <v>60</v>
+      </c>
+      <c r="F27" s="16">
+        <v>70</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="I27" s="25">
+        <v>1</v>
+      </c>
+      <c r="J27" s="16">
+        <v>25.9</v>
+      </c>
+      <c r="K27" s="16">
+        <v>15</v>
+      </c>
+      <c r="L27" s="16">
+        <v>40</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="N27" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="O27" s="25">
+        <v>1</v>
+      </c>
+      <c r="P27" s="16">
+        <v>60.91</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>20</v>
+      </c>
+      <c r="R27" s="16">
+        <v>80</v>
+      </c>
+      <c r="S27" s="15"/>
+      <c r="T27" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="U27" s="25">
+        <v>1</v>
+      </c>
+      <c r="V27" s="16">
+        <v>57.89</v>
+      </c>
+      <c r="W27" s="16">
+        <v>40</v>
+      </c>
+      <c r="X27" s="16">
+        <v>70</v>
+      </c>
+      <c r="Y27" s="15"/>
+      <c r="Z27" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="AA27" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="16">
+        <v>61.48</v>
+      </c>
+      <c r="AC27" s="16">
+        <v>60</v>
+      </c>
+      <c r="AD27" s="16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="19"/>
+      <c r="B28" t="s" s="24">
+        <v>25</v>
+      </c>
+      <c r="C28" s="25">
+        <v>1</v>
+      </c>
+      <c r="D28" s="16">
+        <v>108.1</v>
+      </c>
+      <c r="E28" s="16">
+        <v>10</v>
+      </c>
+      <c r="F28" s="16">
+        <v>200</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="I28" s="25">
+        <v>1</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0.037</v>
+      </c>
+      <c r="K28" s="16">
+        <v>0</v>
+      </c>
+      <c r="L28" s="16">
+        <v>140</v>
+      </c>
+      <c r="M28" s="15"/>
+      <c r="N28" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="O28" s="25">
+        <v>1</v>
+      </c>
+      <c r="P28" s="16">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>0</v>
+      </c>
+      <c r="R28" s="16">
+        <v>110</v>
+      </c>
+      <c r="S28" s="15"/>
+      <c r="T28" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="U28" s="25">
+        <v>1</v>
+      </c>
+      <c r="V28" s="16">
+        <v>109.1</v>
+      </c>
+      <c r="W28" s="16">
+        <v>95</v>
+      </c>
+      <c r="X28" s="16">
+        <v>115</v>
+      </c>
+      <c r="Y28" s="15"/>
+      <c r="Z28" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="AA28" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="16">
+        <v>108</v>
+      </c>
+      <c r="AC28" s="16">
+        <v>10</v>
+      </c>
+      <c r="AD28" s="16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="19"/>
+      <c r="B29" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" t="s" s="31">
+        <v>27</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="37"/>
+      <c r="N29" t="s" s="31">
+        <v>27</v>
+      </c>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="37"/>
+      <c r="T29" t="s" s="31">
+        <v>35</v>
+      </c>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" t="s" s="31">
+        <v>28</v>
+      </c>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" s="19"/>
+      <c r="B30" t="s" s="24">
+        <v>22</v>
+      </c>
+      <c r="C30" s="25">
+        <v>1</v>
+      </c>
+      <c r="D30" s="16">
+        <v>3.711</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
+        <v>13.657</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="I30" s="25">
+        <v>1</v>
+      </c>
+      <c r="J30" s="16">
+        <v>6.546</v>
+      </c>
+      <c r="K30" s="16">
+        <v>0</v>
+      </c>
+      <c r="L30" s="16">
+        <v>16.751</v>
+      </c>
+      <c r="M30" s="15"/>
+      <c r="N30" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="O30" s="25">
+        <v>1</v>
+      </c>
+      <c r="P30" s="16">
+        <v>6.369</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>0</v>
+      </c>
+      <c r="R30" s="16">
+        <v>16.751</v>
+      </c>
+      <c r="S30" s="15"/>
+      <c r="T30" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="U30" s="25">
+        <v>1</v>
+      </c>
+      <c r="V30" s="16">
+        <v>12.12</v>
+      </c>
+      <c r="W30" s="16">
+        <v>0</v>
+      </c>
+      <c r="X30" s="16">
+        <v>50</v>
+      </c>
+      <c r="Y30" s="15"/>
+      <c r="Z30" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="AA30" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="16">
+        <v>5.369</v>
+      </c>
+      <c r="AC30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="16">
+        <v>13.657</v>
+      </c>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" s="19"/>
+      <c r="B31" t="s" s="24">
+        <v>23</v>
+      </c>
+      <c r="C31" s="25">
+        <v>1</v>
+      </c>
+      <c r="D31" s="16">
+        <v>12.24</v>
+      </c>
+      <c r="E31" s="16">
+        <v>-14</v>
+      </c>
+      <c r="F31" s="16">
+        <v>15</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="I31" s="25">
+        <v>1</v>
+      </c>
+      <c r="J31" s="16">
+        <v>5.731</v>
+      </c>
+      <c r="K31" s="16">
+        <v>-3</v>
+      </c>
+      <c r="L31" s="16">
+        <v>10</v>
+      </c>
+      <c r="M31" s="15"/>
+      <c r="N31" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="O31" s="25">
+        <v>1</v>
+      </c>
+      <c r="P31" s="16">
+        <v>-0.697</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>-3</v>
+      </c>
+      <c r="R31" s="16">
+        <v>10</v>
+      </c>
+      <c r="S31" s="15"/>
+      <c r="T31" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="U31" s="25">
+        <v>1</v>
+      </c>
+      <c r="V31" s="16">
+        <v>-5.083</v>
+      </c>
+      <c r="W31" s="16">
+        <v>-14</v>
+      </c>
+      <c r="X31" s="16">
+        <v>15</v>
+      </c>
+      <c r="Y31" s="15"/>
+      <c r="Z31" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="AA31" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="16">
+        <v>11.05</v>
+      </c>
+      <c r="AC31" s="16">
+        <v>-14</v>
+      </c>
+      <c r="AD31" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" s="19"/>
+      <c r="B32" t="s" s="32">
+        <v>24</v>
+      </c>
+      <c r="C32" s="25">
+        <v>1</v>
+      </c>
+      <c r="D32" s="16">
+        <v>132.5</v>
+      </c>
+      <c r="E32" s="16">
+        <v>130</v>
+      </c>
+      <c r="F32" s="16">
+        <v>140</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="I32" s="25">
+        <v>1</v>
+      </c>
+      <c r="J32" s="16">
+        <v>67.63</v>
+      </c>
+      <c r="K32" s="16">
+        <v>60</v>
+      </c>
+      <c r="L32" s="16">
+        <v>70</v>
+      </c>
+      <c r="M32" s="15"/>
+      <c r="N32" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="O32" s="25">
+        <v>1</v>
+      </c>
+      <c r="P32" s="16">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>60</v>
+      </c>
+      <c r="R32" s="16">
+        <v>70</v>
+      </c>
+      <c r="S32" s="15"/>
+      <c r="T32" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="U32" s="25">
+        <v>1</v>
+      </c>
+      <c r="V32" s="16">
+        <v>122.7</v>
+      </c>
+      <c r="W32" s="16">
+        <v>60</v>
+      </c>
+      <c r="X32" s="16">
+        <v>140</v>
+      </c>
+      <c r="Y32" s="15"/>
+      <c r="Z32" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="AA32" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="16">
+        <v>129.2</v>
+      </c>
+      <c r="AC32" s="16">
+        <v>110</v>
+      </c>
+      <c r="AD32" s="16">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" s="19"/>
+      <c r="B33" t="s" s="24">
+        <v>25</v>
+      </c>
+      <c r="C33" s="25">
+        <v>1</v>
+      </c>
+      <c r="D33" s="16">
+        <v>49.54</v>
+      </c>
+      <c r="E33" s="16">
+        <v>10</v>
+      </c>
+      <c r="F33" s="16">
+        <v>150</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="I33" s="25">
+        <v>1</v>
+      </c>
+      <c r="J33" s="16">
+        <v>105.8</v>
+      </c>
+      <c r="K33" s="16">
+        <v>10</v>
+      </c>
+      <c r="L33" s="16">
+        <v>200</v>
+      </c>
+      <c r="M33" s="15"/>
+      <c r="N33" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="O33" s="25">
+        <v>1</v>
+      </c>
+      <c r="P33" s="16">
+        <v>17.35</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>10</v>
+      </c>
+      <c r="R33" s="16">
+        <v>200</v>
+      </c>
+      <c r="S33" s="15"/>
+      <c r="T33" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="U33" s="25">
+        <v>1</v>
+      </c>
+      <c r="V33" s="16">
+        <v>18.91</v>
+      </c>
+      <c r="W33" s="16">
+        <v>0</v>
+      </c>
+      <c r="X33" s="16">
+        <v>140</v>
+      </c>
+      <c r="Y33" s="15"/>
+      <c r="Z33" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="AA33" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="16">
+        <v>39.07</v>
+      </c>
+      <c r="AC33" s="16">
+        <v>10</v>
+      </c>
+      <c r="AD33" s="16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="19"/>
+      <c r="B34" t="s" s="30">
+        <v>29</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" t="s" s="31">
+        <v>28</v>
+      </c>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="37"/>
+      <c r="N34" t="s" s="31">
+        <v>28</v>
+      </c>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="37"/>
+      <c r="T34" t="s" s="31">
+        <v>28</v>
+      </c>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" t="s" s="31">
+        <v>35</v>
+      </c>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="19"/>
+      <c r="B35" t="s" s="24">
+        <v>22</v>
+      </c>
+      <c r="C35" s="25">
+        <v>0</v>
+      </c>
+      <c r="D35" s="16">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="I35" s="25">
+        <v>1</v>
+      </c>
+      <c r="J35" s="16">
+        <v>3.709</v>
+      </c>
+      <c r="K35" s="16">
+        <v>0</v>
+      </c>
+      <c r="L35" s="16">
+        <v>13.657</v>
+      </c>
+      <c r="M35" s="15"/>
+      <c r="N35" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="O35" s="25">
+        <v>1</v>
+      </c>
+      <c r="P35" s="16">
+        <v>3.693</v>
+      </c>
+      <c r="Q35" s="16">
+        <v>0</v>
+      </c>
+      <c r="R35" s="16">
+        <v>13.657</v>
+      </c>
+      <c r="S35" s="15"/>
+      <c r="T35" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="U35" s="25">
+        <v>1</v>
+      </c>
+      <c r="V35" s="16">
+        <v>3.65</v>
+      </c>
+      <c r="W35" s="16">
+        <v>0</v>
+      </c>
+      <c r="X35" s="16">
+        <v>13.657</v>
+      </c>
+      <c r="Y35" s="15"/>
+      <c r="Z35" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="AA35" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="16">
+        <v>3.537</v>
+      </c>
+      <c r="AC35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" s="19"/>
+      <c r="B36" t="s" s="24">
+        <v>23</v>
+      </c>
+      <c r="C36" s="25">
+        <v>0</v>
+      </c>
+      <c r="D36" s="16">
+        <v>0</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="I36" s="25">
+        <v>1</v>
+      </c>
+      <c r="J36" s="16">
+        <v>11.95</v>
+      </c>
+      <c r="K36" s="16">
+        <v>-14</v>
+      </c>
+      <c r="L36" s="16">
+        <v>15</v>
+      </c>
+      <c r="M36" s="15"/>
+      <c r="N36" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="O36" s="25">
+        <v>1</v>
+      </c>
+      <c r="P36" s="16">
+        <v>10.96</v>
+      </c>
+      <c r="Q36" s="16">
+        <v>-14</v>
+      </c>
+      <c r="R36" s="16">
+        <v>15</v>
+      </c>
+      <c r="S36" s="15"/>
+      <c r="T36" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="U36" s="25">
+        <v>1</v>
+      </c>
+      <c r="V36" s="16">
+        <v>40.8</v>
+      </c>
+      <c r="W36" s="16">
+        <v>-14</v>
+      </c>
+      <c r="X36" s="16">
+        <v>15</v>
+      </c>
+      <c r="Y36" s="15"/>
+      <c r="Z36" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="AA36" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="36">
+        <v>-9.995e-09</v>
+      </c>
+      <c r="AC36" s="16">
+        <v>-25</v>
+      </c>
+      <c r="AD36" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" s="19"/>
+      <c r="B37" t="s" s="32">
+        <v>24</v>
+      </c>
+      <c r="C37" s="25">
+        <v>0</v>
+      </c>
+      <c r="D37" s="16">
+        <v>0</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="I37" s="25">
+        <v>1</v>
+      </c>
+      <c r="J37" s="16">
+        <v>134.4</v>
+      </c>
+      <c r="K37" s="16">
+        <v>130</v>
+      </c>
+      <c r="L37" s="16">
+        <v>140</v>
+      </c>
+      <c r="M37" s="15"/>
+      <c r="N37" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="O37" s="25">
+        <v>1</v>
+      </c>
+      <c r="P37" s="16">
+        <v>133.9</v>
+      </c>
+      <c r="Q37" s="16">
+        <v>130</v>
+      </c>
+      <c r="R37" s="16">
+        <v>140</v>
+      </c>
+      <c r="S37" s="15"/>
+      <c r="T37" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="U37" s="25">
+        <v>1</v>
+      </c>
+      <c r="V37" s="16">
+        <v>136.7</v>
+      </c>
+      <c r="W37" s="16">
+        <v>130</v>
+      </c>
+      <c r="X37" s="16">
+        <v>140</v>
+      </c>
+      <c r="Y37" s="15"/>
+      <c r="Z37" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="AA37" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="16">
+        <v>127.2</v>
+      </c>
+      <c r="AC37" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="16">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" s="19"/>
+      <c r="B38" t="s" s="24">
+        <v>25</v>
+      </c>
+      <c r="C38" s="25">
+        <v>0</v>
+      </c>
+      <c r="D38" s="16">
+        <v>0</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="I38" s="25">
+        <v>1</v>
+      </c>
+      <c r="J38" s="16">
+        <v>49.38</v>
+      </c>
+      <c r="K38" s="16">
+        <v>10</v>
+      </c>
+      <c r="L38" s="16">
+        <v>150</v>
+      </c>
+      <c r="M38" s="15"/>
+      <c r="N38" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="O38" s="25">
+        <v>1</v>
+      </c>
+      <c r="P38" s="16">
+        <v>49.72</v>
+      </c>
+      <c r="Q38" s="16">
+        <v>10</v>
+      </c>
+      <c r="R38" s="16">
+        <v>150</v>
+      </c>
+      <c r="S38" s="15"/>
+      <c r="T38" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="U38" s="25">
+        <v>1</v>
+      </c>
+      <c r="V38" s="16">
+        <v>30.02</v>
+      </c>
+      <c r="W38" s="16">
+        <v>30</v>
+      </c>
+      <c r="X38" s="16">
+        <v>150</v>
+      </c>
+      <c r="Y38" s="15"/>
+      <c r="Z38" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="AA38" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="16">
+        <v>10.83</v>
+      </c>
+      <c r="AC38" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="16">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" s="19"/>
+      <c r="B39" t="s" s="21">
+        <v>30</v>
+      </c>
+      <c r="C39" s="25">
+        <v>0</v>
+      </c>
+      <c r="D39" s="16">
+        <v>188.7</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" t="s" s="31">
+        <v>29</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" t="s" s="31">
+        <v>29</v>
+      </c>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" t="s" s="31">
+        <v>29</v>
+      </c>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" t="s" s="31">
+        <v>29</v>
+      </c>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="I40" s="25">
+        <v>0</v>
+      </c>
+      <c r="J40" s="16">
+        <v>0</v>
+      </c>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="O40" s="25">
+        <v>0</v>
+      </c>
+      <c r="P40" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="U40" s="25">
+        <v>0</v>
+      </c>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="AA40" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="I41" s="25">
+        <v>0</v>
+      </c>
+      <c r="J41" s="16">
+        <v>0</v>
+      </c>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="O41" s="25">
+        <v>0</v>
+      </c>
+      <c r="P41" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="U41" s="25">
+        <v>0</v>
+      </c>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="AA41" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="15"/>
+      <c r="AD41" s="15"/>
+    </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" s="19"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="I42" s="25">
+        <v>0</v>
+      </c>
+      <c r="J42" s="16">
+        <v>0</v>
+      </c>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="O42" s="25">
+        <v>0</v>
+      </c>
+      <c r="P42" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="U42" s="25">
+        <v>0</v>
+      </c>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="AA42" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="15"/>
+    </row>
+    <row r="43" ht="20.05" customHeight="1">
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="I43" s="25">
+        <v>0</v>
+      </c>
+      <c r="J43" s="16">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="O43" s="25">
+        <v>0</v>
+      </c>
+      <c r="P43" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="U43" s="25">
+        <v>0</v>
+      </c>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="AA43" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="15"/>
+      <c r="AD43" s="15"/>
+    </row>
+    <row r="44" ht="20.05" customHeight="1">
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" t="s" s="23">
+        <v>30</v>
+      </c>
+      <c r="I44" s="25">
+        <v>0</v>
+      </c>
+      <c r="J44" s="16">
+        <v>188.7</v>
+      </c>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" t="s" s="23">
+        <v>30</v>
+      </c>
+      <c r="O44" s="25">
+        <v>0</v>
+      </c>
+      <c r="P44" s="16">
+        <v>185.7</v>
+      </c>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" t="s" s="23">
+        <v>30</v>
+      </c>
+      <c r="U44" s="25">
+        <v>0</v>
+      </c>
+      <c r="V44" s="16">
+        <v>185.8</v>
+      </c>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" t="s" s="23">
+        <v>30</v>
+      </c>
+      <c r="AA44" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="16">
+        <v>196.1</v>
+      </c>
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="T34:X34"/>
+    <mergeCell ref="T39:X39"/>
+    <mergeCell ref="T29:X29"/>
+    <mergeCell ref="Z39:AD39"/>
+    <mergeCell ref="Z34:AD34"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Analysis/X-Ray Summary.xlsx
+++ b/Analysis/X-Ray Summary.xlsx
@@ -197,12 +197,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="0.00000"/>
     <numFmt numFmtId="60" formatCode="0.0##########E+00"/>
     <numFmt numFmtId="61" formatCode="0.0####E+00"/>
     <numFmt numFmtId="62" formatCode="0.0###########E+00"/>
+    <numFmt numFmtId="63" formatCode="0.0########E+00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -380,7 +381,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -494,6 +495,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="63" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3093,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="16">
-        <v>188.7</v>
+        <v>186.9</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
@@ -3285,7 +3289,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="11">
-        <v>15.9217</v>
+        <v>15.667</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
@@ -3293,7 +3297,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="11">
-        <v>13.6031</v>
+        <v>10.1898</v>
       </c>
       <c r="O3" s="8"/>
       <c r="P3" s="9"/>
@@ -3301,7 +3305,7 @@
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
       <c r="T3" s="11">
-        <v>8.38119</v>
+        <v>5.10006</v>
       </c>
       <c r="U3" s="8"/>
       <c r="V3" s="9"/>
@@ -3424,7 +3428,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="18">
         <f>(H5-H4)*H3+H4*LN(H5)</f>
-        <v>5748.791789973230</v>
+        <v>5658.627989973230</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
@@ -3433,7 +3437,7 @@
       <c r="M6" s="15"/>
       <c r="N6" s="18">
         <f>(N5-N4)*N3+N4*LN(N5)</f>
-        <v>4928.007389973230</v>
+        <v>3719.699189973230</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="15"/>
@@ -3442,7 +3446,7 @@
       <c r="S6" s="15"/>
       <c r="T6" s="18">
         <f>(T5-T4)*T3+T4*LN(T5)</f>
-        <v>3079.451249973230</v>
+        <v>1917.931229973230</v>
       </c>
       <c r="U6" s="14"/>
       <c r="V6" s="15"/>
@@ -3663,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="27">
-        <v>1.974e-08</v>
+        <v>1.985e-08</v>
       </c>
       <c r="K10" s="16">
         <v>0</v>
@@ -3679,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="27">
-        <v>2.465e-08</v>
+        <v>2.205e-08</v>
       </c>
       <c r="Q10" s="16">
         <v>0</v>
@@ -3695,7 +3699,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="27">
-        <v>2.014e-08</v>
+        <v>3.51e-09</v>
       </c>
       <c r="W10" s="16">
         <v>0</v>
@@ -3745,13 +3749,13 @@
         <v>1</v>
       </c>
       <c r="J11" s="16">
-        <v>1.05</v>
+        <v>1.074</v>
       </c>
       <c r="K11" s="16">
         <v>0.95</v>
       </c>
       <c r="L11" s="16">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" t="s" s="26">
@@ -3761,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="P11" s="16">
-        <v>1.05</v>
+        <v>1.034</v>
       </c>
       <c r="Q11" s="16">
         <v>0.95</v>
@@ -3777,13 +3781,13 @@
         <v>1</v>
       </c>
       <c r="V11" s="16">
-        <v>0.972</v>
+        <v>1.065</v>
       </c>
       <c r="W11" s="16">
         <v>0.95</v>
       </c>
       <c r="X11" s="16">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="Y11" s="15"/>
       <c r="Z11" t="s" s="26">
@@ -3993,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="16">
-        <v>15.1</v>
+        <v>14.75</v>
       </c>
       <c r="K15" s="16">
         <v>8.65</v>
@@ -4009,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="16">
-        <v>12.59</v>
+        <v>12.06</v>
       </c>
       <c r="Q15" s="16">
         <v>8.65</v>
@@ -4025,10 +4029,10 @@
         <v>1</v>
       </c>
       <c r="V15" s="16">
-        <v>8.699</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W15" s="16">
-        <v>8.65</v>
+        <v>0</v>
       </c>
       <c r="X15" s="16">
         <v>28.65</v>
@@ -4083,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="16">
-        <v>0.458</v>
+        <v>-0.458</v>
       </c>
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
@@ -4095,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="16">
-        <v>0.458</v>
+        <v>-0.458</v>
       </c>
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
@@ -4303,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="16">
-        <v>2.721</v>
+        <v>2.633</v>
       </c>
       <c r="K20" s="16">
         <v>0</v>
@@ -4319,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="16">
-        <v>3.268</v>
+        <v>3.262</v>
       </c>
       <c r="Q20" s="16">
         <v>0</v>
@@ -4335,7 +4339,7 @@
         <v>1</v>
       </c>
       <c r="V20" s="16">
-        <v>3.276</v>
+        <v>3.383</v>
       </c>
       <c r="W20" s="16">
         <v>0</v>
@@ -4385,7 +4389,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="16">
-        <v>25.73</v>
+        <v>23.48</v>
       </c>
       <c r="K21" s="16">
         <v>-0.5</v>
@@ -4401,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="16">
-        <v>0.78</v>
+        <v>-0.3861</v>
       </c>
       <c r="Q21" s="16">
         <v>-0.5</v>
@@ -4417,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="V21" s="16">
-        <v>-0.43</v>
+        <v>0.7264</v>
       </c>
       <c r="W21" s="16">
         <v>-0.5</v>
@@ -4467,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="16">
-        <v>28.57</v>
+        <v>27.09</v>
       </c>
       <c r="K22" s="16">
         <v>-10</v>
@@ -4483,7 +4487,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="16">
-        <v>26.51</v>
+        <v>26.25</v>
       </c>
       <c r="Q22" s="16">
         <v>15</v>
@@ -4499,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="V22" s="16">
-        <v>23.07</v>
+        <v>21.31</v>
       </c>
       <c r="W22" s="16">
         <v>15</v>
@@ -4549,7 +4553,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="16">
-        <v>39.45</v>
+        <v>39.23</v>
       </c>
       <c r="K23" s="16">
         <v>0</v>
@@ -4565,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="16">
-        <v>27.91</v>
+        <v>28.26</v>
       </c>
       <c r="Q23" s="16">
         <v>0</v>
@@ -4581,7 +4585,7 @@
         <v>1</v>
       </c>
       <c r="V23" s="16">
-        <v>27.8</v>
+        <v>8.994999999999999</v>
       </c>
       <c r="W23" s="16">
         <v>0</v>
@@ -4673,7 +4677,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="16">
-        <v>4.582</v>
+        <v>4.678</v>
       </c>
       <c r="K25" s="16">
         <v>0</v>
@@ -4689,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="P25" s="16">
-        <v>11.65</v>
+        <v>15.19</v>
       </c>
       <c r="Q25" s="16">
         <v>0</v>
@@ -4705,7 +4709,7 @@
         <v>1</v>
       </c>
       <c r="V25" s="16">
-        <v>6.214</v>
+        <v>6.625</v>
       </c>
       <c r="W25" s="16">
         <v>0</v>
@@ -4755,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="16">
-        <v>-0.18</v>
+        <v>-0.372</v>
       </c>
       <c r="K26" s="16">
         <v>-0.5</v>
@@ -4771,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="P26" s="16">
-        <v>-0.093</v>
+        <v>-0.1529</v>
       </c>
       <c r="Q26" s="16">
         <v>-0.5</v>
@@ -4787,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="V26" s="16">
-        <v>1.748</v>
+        <v>5.028</v>
       </c>
       <c r="W26" s="16">
         <v>-3</v>
@@ -4837,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="16">
-        <v>25.9</v>
+        <v>27.56</v>
       </c>
       <c r="K27" s="16">
         <v>15</v>
@@ -4853,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="P27" s="16">
-        <v>60.91</v>
+        <v>60.44</v>
       </c>
       <c r="Q27" s="16">
         <v>20</v>
@@ -4869,7 +4873,7 @@
         <v>1</v>
       </c>
       <c r="V27" s="16">
-        <v>57.89</v>
+        <v>59.35</v>
       </c>
       <c r="W27" s="16">
         <v>40</v>
@@ -4918,8 +4922,8 @@
       <c r="I28" s="25">
         <v>1</v>
       </c>
-      <c r="J28" s="16">
-        <v>0.037</v>
+      <c r="J28" s="38">
+        <v>3.424e-06</v>
       </c>
       <c r="K28" s="16">
         <v>0</v>
@@ -4935,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="P28" s="16">
-        <v>90.73999999999999</v>
+        <v>109</v>
       </c>
       <c r="Q28" s="16">
         <v>0</v>
@@ -4951,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="V28" s="16">
-        <v>109.1</v>
+        <v>108.6</v>
       </c>
       <c r="W28" s="16">
         <v>95</v>
@@ -5043,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="16">
-        <v>6.546</v>
+        <v>6.549</v>
       </c>
       <c r="K30" s="16">
         <v>0</v>
@@ -5059,7 +5063,7 @@
         <v>1</v>
       </c>
       <c r="P30" s="16">
-        <v>6.369</v>
+        <v>5.809</v>
       </c>
       <c r="Q30" s="16">
         <v>0</v>
@@ -5075,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="V30" s="16">
-        <v>12.12</v>
+        <v>5.849</v>
       </c>
       <c r="W30" s="16">
         <v>0</v>
@@ -5125,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="16">
-        <v>5.731</v>
+        <v>5.775</v>
       </c>
       <c r="K31" s="16">
         <v>-3</v>
@@ -5141,7 +5145,7 @@
         <v>1</v>
       </c>
       <c r="P31" s="16">
-        <v>-0.697</v>
+        <v>9.997999999999999</v>
       </c>
       <c r="Q31" s="16">
         <v>-3</v>
@@ -5157,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="V31" s="16">
-        <v>-5.083</v>
+        <v>13.23</v>
       </c>
       <c r="W31" s="16">
         <v>-14</v>
@@ -5207,7 +5211,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="16">
-        <v>67.63</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="K32" s="16">
         <v>60</v>
@@ -5223,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="P32" s="16">
-        <v>69.98999999999999</v>
+        <v>81.72</v>
       </c>
       <c r="Q32" s="16">
         <v>60</v>
@@ -5239,7 +5243,7 @@
         <v>1</v>
       </c>
       <c r="V32" s="16">
-        <v>122.7</v>
+        <v>128.2</v>
       </c>
       <c r="W32" s="16">
         <v>60</v>
@@ -5289,7 +5293,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="16">
-        <v>105.8</v>
+        <v>106</v>
       </c>
       <c r="K33" s="16">
         <v>10</v>
@@ -5305,10 +5309,10 @@
         <v>1</v>
       </c>
       <c r="P33" s="16">
-        <v>17.35</v>
+        <v>0.003091</v>
       </c>
       <c r="Q33" s="16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R33" s="16">
         <v>200</v>
@@ -5321,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="V33" s="16">
-        <v>18.91</v>
+        <v>40.57</v>
       </c>
       <c r="W33" s="16">
         <v>0</v>
@@ -5409,7 +5413,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="16">
-        <v>3.709</v>
+        <v>3.718</v>
       </c>
       <c r="K35" s="16">
         <v>0</v>
@@ -5425,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="P35" s="16">
-        <v>3.693</v>
+        <v>3.68</v>
       </c>
       <c r="Q35" s="16">
         <v>0</v>
@@ -5441,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="V35" s="16">
-        <v>3.65</v>
+        <v>3.521</v>
       </c>
       <c r="W35" s="16">
         <v>0</v>
@@ -5487,7 +5491,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="16">
-        <v>11.95</v>
+        <v>12.44</v>
       </c>
       <c r="K36" s="16">
         <v>-14</v>
@@ -5503,7 +5507,7 @@
         <v>1</v>
       </c>
       <c r="P36" s="16">
-        <v>10.96</v>
+        <v>8.896000000000001</v>
       </c>
       <c r="Q36" s="16">
         <v>-14</v>
@@ -5519,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="V36" s="16">
-        <v>40.8</v>
+        <v>-2.526</v>
       </c>
       <c r="W36" s="16">
         <v>-14</v>
@@ -5565,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="16">
-        <v>134.4</v>
+        <v>133.3</v>
       </c>
       <c r="K37" s="16">
         <v>130</v>
@@ -5581,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="P37" s="16">
-        <v>133.9</v>
+        <v>134.4</v>
       </c>
       <c r="Q37" s="16">
         <v>130</v>
@@ -5597,10 +5601,10 @@
         <v>1</v>
       </c>
       <c r="V37" s="16">
-        <v>136.7</v>
+        <v>122.6</v>
       </c>
       <c r="W37" s="16">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="X37" s="16">
         <v>140</v>
@@ -5643,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="16">
-        <v>49.38</v>
+        <v>49.35</v>
       </c>
       <c r="K38" s="16">
         <v>10</v>
@@ -5659,7 +5663,7 @@
         <v>1</v>
       </c>
       <c r="P38" s="16">
-        <v>49.72</v>
+        <v>48.93</v>
       </c>
       <c r="Q38" s="16">
         <v>10</v>
@@ -5675,10 +5679,10 @@
         <v>1</v>
       </c>
       <c r="V38" s="16">
-        <v>30.02</v>
+        <v>9.295</v>
       </c>
       <c r="W38" s="16">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X38" s="16">
         <v>150</v>
@@ -5969,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="16">
-        <v>188.7</v>
+        <v>194.6</v>
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
@@ -5981,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="16">
-        <v>185.7</v>
+        <v>186.2</v>
       </c>
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
@@ -5993,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="16">
-        <v>185.8</v>
+        <v>167.4</v>
       </c>
       <c r="W44" s="15"/>
       <c r="X44" s="15"/>

--- a/Analysis/X-Ray Summary.xlsx
+++ b/Analysis/X-Ray Summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>Table 1</t>
   </si>
@@ -107,6 +107,9 @@
     <t>Value</t>
   </si>
   <si>
+    <t>STDEV</t>
+  </si>
+  <si>
     <t>Minimum</t>
   </si>
   <si>
@@ -197,13 +200,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="0.00000"/>
     <numFmt numFmtId="60" formatCode="0.0##########E+00"/>
-    <numFmt numFmtId="61" formatCode="0.0####E+00"/>
-    <numFmt numFmtId="62" formatCode="0.0###########E+00"/>
-    <numFmt numFmtId="63" formatCode="0.0########E+00"/>
+    <numFmt numFmtId="61" formatCode="0.0############E+00"/>
+    <numFmt numFmtId="62" formatCode="0.0####E+00"/>
+    <numFmt numFmtId="63" formatCode="0.0###########E+00"/>
+    <numFmt numFmtId="64" formatCode="0.0########E+00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -381,7 +385,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -469,6 +473,9 @@
     <xf numFmtId="61" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="62" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -490,13 +497,13 @@
     <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="62" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="63" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="63" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="64" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1578,7 +1585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:R40"/>
+  <dimension ref="A2:S40"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1586,12 +1593,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.35156" style="1" customWidth="1"/>
-    <col min="8" max="12" width="16.3516" style="1" customWidth="1"/>
-    <col min="13" max="13" width="3.35156" style="1" customWidth="1"/>
-    <col min="14" max="18" width="16.3516" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.35156" style="1" customWidth="1"/>
+    <col min="9" max="13" width="16.3516" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.35156" style="1" customWidth="1"/>
+    <col min="15" max="19" width="16.3516" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -1615,6 +1622,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -1628,21 +1636,22 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" t="s" s="3">
+      <c r="H2" s="5"/>
+      <c r="I2" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" t="s" s="3">
+      <c r="N2" s="5"/>
+      <c r="O2" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="6">
@@ -1653,24 +1662,25 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="11">
+      <c r="H3" s="10"/>
+      <c r="I3" s="11">
         <v>25.9451</v>
       </c>
-      <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
-      <c r="N3" s="11">
+      <c r="N3" s="10"/>
+      <c r="O3" s="11">
         <v>21.1486</v>
       </c>
-      <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="12">
@@ -1685,23 +1695,24 @@
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="16">
-        <f>SUM(I9:I40)</f>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16">
+        <f>SUM(J9:J40)</f>
         <v>14</v>
       </c>
-      <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="16">
-        <f>SUM(O9:O40)</f>
+      <c r="N4" s="15"/>
+      <c r="O4" s="16">
+        <f>SUM(P9:P40)</f>
         <v>14</v>
       </c>
-      <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="12">
@@ -1715,21 +1726,22 @@
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="16">
+      <c r="H5" s="15"/>
+      <c r="I5" s="16">
         <v>373</v>
       </c>
-      <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="16">
+      <c r="N5" s="15"/>
+      <c r="O5" s="16">
         <v>373</v>
       </c>
-      <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="12">
@@ -1744,23 +1756,24 @@
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="18">
-        <f>(H5-H4)*H3+H4*LN(H5)</f>
+      <c r="H6" s="15"/>
+      <c r="I6" s="18">
+        <f>(I5-I4)*I3+I4*LN(I5)</f>
         <v>9397.192997875010</v>
       </c>
-      <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
-      <c r="N6" s="18">
-        <f>(N5-N4)*N3+N4*LN(N5)</f>
+      <c r="N6" s="15"/>
+      <c r="O6" s="18">
+        <f>(O5-O4)*O3+O4*LN(O5)</f>
         <v>7675.249497875010</v>
       </c>
-      <c r="O6" s="15"/>
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="19"/>
@@ -1781,6 +1794,7 @@
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="12">
@@ -1801,45 +1815,48 @@
       <c r="F8" t="s" s="23">
         <v>14</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" t="s" s="23">
+      <c r="G8" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" t="s" s="23">
         <v>10</v>
       </c>
-      <c r="I8" t="s" s="22">
+      <c r="J8" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="J8" t="s" s="23">
+      <c r="K8" t="s" s="23">
         <v>12</v>
-      </c>
-      <c r="K8" t="s" s="23">
-        <v>13</v>
       </c>
       <c r="L8" t="s" s="23">
         <v>14</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" t="s" s="23">
+      <c r="M8" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" t="s" s="23">
         <v>10</v>
       </c>
-      <c r="O8" t="s" s="22">
+      <c r="P8" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="P8" t="s" s="23">
+      <c r="Q8" t="s" s="23">
         <v>12</v>
-      </c>
-      <c r="Q8" t="s" s="23">
-        <v>13</v>
       </c>
       <c r="R8" t="s" s="23">
         <v>14</v>
       </c>
+      <c r="S8" t="s" s="23">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="25">
         <v>0</v>
@@ -1850,34 +1867,35 @@
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
-      <c r="H9" t="s" s="26">
-        <v>16</v>
-      </c>
-      <c r="I9" s="25">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16">
-        <v>1</v>
-      </c>
-      <c r="K9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
+        <v>1</v>
+      </c>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
-      <c r="N9" t="s" s="26">
-        <v>16</v>
-      </c>
-      <c r="O9" s="25">
-        <v>0</v>
-      </c>
-      <c r="P9" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="P9" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>1</v>
+      </c>
       <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" t="s" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="25">
         <v>1</v>
@@ -1885,41 +1903,44 @@
       <c r="D10" s="27">
         <v>2.664e-08</v>
       </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="28">
+      <c r="E10" s="28">
+        <v>8.743e-10</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29">
         <v>1e-05</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" t="s" s="26">
-        <v>17</v>
-      </c>
-      <c r="I10" s="25">
-        <v>0</v>
-      </c>
-      <c r="J10" s="16">
-        <v>0</v>
-      </c>
-      <c r="K10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" t="s" s="26">
-        <v>17</v>
-      </c>
-      <c r="O10" s="25">
-        <v>0</v>
-      </c>
-      <c r="P10" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="P10" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>0</v>
+      </c>
       <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="19"/>
       <c r="B11" t="s" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="25">
         <v>1</v>
@@ -1928,48 +1949,51 @@
         <v>1.087</v>
       </c>
       <c r="E11" s="16">
+        <v>0.0026</v>
+      </c>
+      <c r="F11" s="16">
         <v>0.95</v>
       </c>
-      <c r="F11" s="16">
+      <c r="G11" s="16">
         <v>1.1</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="I11" s="25">
-        <v>1</v>
-      </c>
-      <c r="J11" s="16">
+      <c r="H11" s="15"/>
+      <c r="I11" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="J11" s="25">
+        <v>1</v>
+      </c>
+      <c r="K11" s="16">
         <v>1.023</v>
       </c>
-      <c r="K11" s="16">
+      <c r="L11" s="16">
         <v>0.95</v>
       </c>
-      <c r="L11" s="16">
+      <c r="M11" s="16">
         <v>1.05</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="O11" s="25">
-        <v>1</v>
-      </c>
-      <c r="P11" s="16">
+      <c r="N11" s="15"/>
+      <c r="O11" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="P11" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="16">
         <v>1.078</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="R11" s="16">
         <v>0.95</v>
       </c>
-      <c r="R11" s="16">
+      <c r="S11" s="16">
         <v>1.1</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" t="s" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="25">
         <v>0</v>
@@ -1980,34 +2004,35 @@
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
-      <c r="H12" t="s" s="26">
-        <v>19</v>
-      </c>
-      <c r="I12" s="25">
-        <v>0</v>
-      </c>
-      <c r="J12" s="16">
-        <v>0</v>
-      </c>
-      <c r="K12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="J12" s="25">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0</v>
+      </c>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
-      <c r="N12" t="s" s="26">
-        <v>19</v>
-      </c>
-      <c r="O12" s="25">
-        <v>0</v>
-      </c>
-      <c r="P12" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="P12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>0</v>
+      </c>
       <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="19"/>
       <c r="B13" t="s" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
@@ -2018,60 +2043,62 @@
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" t="s" s="26">
-        <v>20</v>
-      </c>
-      <c r="I13" s="25">
-        <v>0</v>
-      </c>
-      <c r="J13" s="16">
-        <v>0</v>
-      </c>
-      <c r="K13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" t="s" s="26">
+        <v>21</v>
+      </c>
+      <c r="J13" s="25">
+        <v>0</v>
+      </c>
+      <c r="K13" s="16">
+        <v>0</v>
+      </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" t="s" s="26">
-        <v>20</v>
-      </c>
-      <c r="O13" s="25">
-        <v>0</v>
-      </c>
-      <c r="P13" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" t="s" s="26">
+        <v>21</v>
+      </c>
+      <c r="P13" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>0</v>
+      </c>
       <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="B14" t="s" s="30">
-        <v>21</v>
+      <c r="B14" t="s" s="31">
+        <v>22</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
-      <c r="H14" t="s" s="31">
-        <v>21</v>
-      </c>
-      <c r="I14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" t="s" s="32">
+        <v>22</v>
+      </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
-      <c r="N14" t="s" s="31">
-        <v>21</v>
-      </c>
-      <c r="O14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" t="s" s="32">
+        <v>22</v>
+      </c>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="19"/>
       <c r="B15" t="s" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="25">
         <v>1</v>
@@ -2080,48 +2107,51 @@
         <v>17.33</v>
       </c>
       <c r="E15" s="16">
+        <v>0.55</v>
+      </c>
+      <c r="F15" s="16">
         <v>8.65</v>
       </c>
-      <c r="F15" s="16">
+      <c r="G15" s="16">
         <v>28.65</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="I15" s="25">
-        <v>1</v>
-      </c>
-      <c r="J15" s="16">
+      <c r="H15" s="15"/>
+      <c r="I15" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="J15" s="25">
+        <v>1</v>
+      </c>
+      <c r="K15" s="16">
         <v>18.42</v>
       </c>
-      <c r="K15" s="16">
+      <c r="L15" s="16">
         <v>8.65</v>
       </c>
-      <c r="L15" s="16">
+      <c r="M15" s="16">
         <v>28.65</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="O15" s="25">
-        <v>1</v>
-      </c>
-      <c r="P15" s="16">
+      <c r="N15" s="15"/>
+      <c r="O15" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="P15" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="16">
         <v>17.63</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="R15" s="16">
         <v>8.65</v>
       </c>
-      <c r="R15" s="16">
+      <c r="S15" s="16">
         <v>28.65</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="19"/>
       <c r="B16" t="s" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="25">
         <v>0</v>
@@ -2132,34 +2162,35 @@
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-      <c r="H16" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="I16" s="25">
-        <v>0</v>
-      </c>
-      <c r="J16" s="16">
+      <c r="H16" s="15"/>
+      <c r="I16" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="J16" s="25">
+        <v>0</v>
+      </c>
+      <c r="K16" s="16">
         <v>-0.458</v>
       </c>
-      <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
-      <c r="N16" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="O16" s="25">
-        <v>0</v>
-      </c>
-      <c r="P16" s="16">
+      <c r="N16" s="15"/>
+      <c r="O16" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="P16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16">
         <v>-0.458</v>
       </c>
-      <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="19"/>
-      <c r="B17" t="s" s="32">
-        <v>24</v>
+      <c r="B17" t="s" s="33">
+        <v>25</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
@@ -2170,34 +2201,35 @@
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="I17" s="25">
-        <v>0</v>
-      </c>
-      <c r="J17" s="16">
+      <c r="H17" s="15"/>
+      <c r="I17" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="J17" s="25">
+        <v>0</v>
+      </c>
+      <c r="K17" s="16">
         <v>20.07</v>
       </c>
-      <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
-      <c r="N17" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="O17" s="25">
-        <v>0</v>
-      </c>
-      <c r="P17" s="16">
+      <c r="N17" s="15"/>
+      <c r="O17" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="P17" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16">
         <v>20.07</v>
       </c>
-      <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="30"/>
       <c r="B18" t="s" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="25">
         <v>0</v>
@@ -2208,60 +2240,62 @@
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
-      <c r="H18" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="I18" s="25">
-        <v>0</v>
-      </c>
-      <c r="J18" s="16">
-        <v>0</v>
-      </c>
-      <c r="K18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="J18" s="25">
+        <v>0</v>
+      </c>
+      <c r="K18" s="16">
+        <v>0</v>
+      </c>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
-      <c r="N18" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="O18" s="25">
-        <v>0</v>
-      </c>
-      <c r="P18" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="P18" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>0</v>
+      </c>
       <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="19"/>
-      <c r="B19" t="s" s="30">
-        <v>26</v>
+      <c r="B19" t="s" s="31">
+        <v>27</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
-      <c r="H19" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="I19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" t="s" s="32">
+        <v>27</v>
+      </c>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
-      <c r="N19" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="O19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" t="s" s="32">
+        <v>27</v>
+      </c>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="19"/>
       <c r="B20" t="s" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="25">
         <v>1</v>
@@ -2270,48 +2304,51 @@
         <v>3.322</v>
       </c>
       <c r="E20" s="16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16">
         <v>13.224</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="I20" s="25">
-        <v>1</v>
-      </c>
-      <c r="J20" s="16">
+      <c r="H20" s="15"/>
+      <c r="I20" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="J20" s="25">
+        <v>1</v>
+      </c>
+      <c r="K20" s="16">
         <v>3.262</v>
       </c>
-      <c r="K20" s="16">
-        <v>0</v>
-      </c>
       <c r="L20" s="16">
+        <v>0</v>
+      </c>
+      <c r="M20" s="16">
         <v>13.224</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="N20" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="O20" s="25">
-        <v>1</v>
-      </c>
-      <c r="P20" s="16">
+      <c r="N20" s="15"/>
+      <c r="O20" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="P20" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="16">
         <v>3.296</v>
       </c>
-      <c r="Q20" s="16">
-        <v>0</v>
-      </c>
       <c r="R20" s="16">
+        <v>0</v>
+      </c>
+      <c r="S20" s="16">
         <v>13.224</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="19"/>
       <c r="B21" t="s" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="25">
         <v>1</v>
@@ -2320,48 +2357,51 @@
         <v>6.436</v>
       </c>
       <c r="E21" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="F21" s="16">
         <v>-0.5</v>
       </c>
-      <c r="F21" s="16">
+      <c r="G21" s="16">
         <v>15</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="I21" s="25">
-        <v>1</v>
-      </c>
-      <c r="J21" s="16">
+      <c r="H21" s="15"/>
+      <c r="I21" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="J21" s="25">
+        <v>1</v>
+      </c>
+      <c r="K21" s="16">
         <v>7.852</v>
       </c>
-      <c r="K21" s="16">
+      <c r="L21" s="16">
         <v>5.871</v>
       </c>
-      <c r="L21" s="16">
+      <c r="M21" s="16">
         <v>7.871</v>
       </c>
-      <c r="M21" s="15"/>
-      <c r="N21" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="O21" s="25">
-        <v>1</v>
-      </c>
-      <c r="P21" s="16">
+      <c r="N21" s="15"/>
+      <c r="O21" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="P21" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="16">
         <v>6.821</v>
       </c>
-      <c r="Q21" s="16">
+      <c r="R21" s="16">
         <v>-0.5</v>
       </c>
-      <c r="R21" s="16">
+      <c r="S21" s="16">
         <v>15</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="19"/>
-      <c r="B22" t="s" s="32">
-        <v>24</v>
+      <c r="B22" t="s" s="33">
+        <v>25</v>
       </c>
       <c r="C22" s="25">
         <v>1</v>
@@ -2370,48 +2410,51 @@
         <v>30.37</v>
       </c>
       <c r="E22" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="F22" s="16">
         <v>15</v>
       </c>
-      <c r="F22" s="16">
+      <c r="G22" s="16">
         <v>40</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="I22" s="25">
-        <v>1</v>
-      </c>
-      <c r="J22" s="16">
+      <c r="H22" s="15"/>
+      <c r="I22" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="J22" s="25">
+        <v>1</v>
+      </c>
+      <c r="K22" s="16">
         <v>33.39</v>
       </c>
-      <c r="K22" s="16">
+      <c r="L22" s="16">
         <v>32.94</v>
       </c>
-      <c r="L22" s="16">
+      <c r="M22" s="16">
         <v>34.94</v>
       </c>
-      <c r="M22" s="15"/>
-      <c r="N22" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="O22" s="25">
-        <v>1</v>
-      </c>
-      <c r="P22" s="16">
+      <c r="N22" s="15"/>
+      <c r="O22" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="P22" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="16">
         <v>31.11</v>
       </c>
-      <c r="Q22" s="16">
+      <c r="R22" s="16">
         <v>15</v>
       </c>
-      <c r="R22" s="16">
+      <c r="S22" s="16">
         <v>40</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="19"/>
       <c r="B23" t="s" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="25">
         <v>1</v>
@@ -2420,74 +2463,78 @@
         <v>29.32</v>
       </c>
       <c r="E23" s="16">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="F23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16">
         <v>140</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="I23" s="25">
-        <v>1</v>
-      </c>
-      <c r="J23" s="16">
+      <c r="H23" s="15"/>
+      <c r="I23" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="J23" s="25">
+        <v>1</v>
+      </c>
+      <c r="K23" s="16">
         <v>36.96</v>
       </c>
-      <c r="K23" s="16">
-        <v>0</v>
-      </c>
       <c r="L23" s="16">
+        <v>0</v>
+      </c>
+      <c r="M23" s="16">
         <v>140.55</v>
       </c>
-      <c r="M23" s="15"/>
-      <c r="N23" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="O23" s="25">
-        <v>1</v>
-      </c>
-      <c r="P23" s="16">
+      <c r="N23" s="15"/>
+      <c r="O23" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="P23" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="16">
         <v>31.05</v>
       </c>
-      <c r="Q23" s="16">
-        <v>0</v>
-      </c>
       <c r="R23" s="16">
+        <v>0</v>
+      </c>
+      <c r="S23" s="16">
         <v>140</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" s="19"/>
-      <c r="B24" t="s" s="30">
-        <v>27</v>
+      <c r="B24" t="s" s="31">
+        <v>28</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" t="s" s="31">
-        <v>27</v>
-      </c>
-      <c r="I24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" t="s" s="32">
+        <v>28</v>
+      </c>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" t="s" s="31">
-        <v>27</v>
-      </c>
-      <c r="O24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" t="s" s="32">
+        <v>28</v>
+      </c>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" s="19"/>
       <c r="B25" t="s" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="25">
         <v>1</v>
@@ -2496,48 +2543,51 @@
         <v>6.603</v>
       </c>
       <c r="E25" s="16">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="F25" s="16">
+        <v>0</v>
+      </c>
+      <c r="G25" s="16">
         <v>16.751</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="I25" s="25">
-        <v>1</v>
-      </c>
-      <c r="J25" s="16">
+      <c r="H25" s="15"/>
+      <c r="I25" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="J25" s="25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="16">
         <v>6.711</v>
       </c>
-      <c r="K25" s="16">
-        <v>0</v>
-      </c>
       <c r="L25" s="16">
+        <v>0</v>
+      </c>
+      <c r="M25" s="16">
         <v>16.751</v>
       </c>
-      <c r="M25" s="15"/>
-      <c r="N25" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="O25" s="25">
-        <v>1</v>
-      </c>
-      <c r="P25" s="16">
+      <c r="N25" s="15"/>
+      <c r="O25" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="P25" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="16">
         <v>6.588</v>
       </c>
-      <c r="Q25" s="16">
-        <v>0</v>
-      </c>
       <c r="R25" s="16">
+        <v>0</v>
+      </c>
+      <c r="S25" s="16">
         <v>16.751</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" s="19"/>
       <c r="B26" t="s" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" s="25">
         <v>1</v>
@@ -2546,48 +2596,51 @@
         <v>2.904</v>
       </c>
       <c r="E26" s="16">
+        <v>0.202</v>
+      </c>
+      <c r="F26" s="16">
         <v>-3</v>
       </c>
-      <c r="F26" s="16">
+      <c r="G26" s="16">
         <v>10</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="I26" s="25">
-        <v>1</v>
-      </c>
-      <c r="J26" s="16">
+      <c r="H26" s="15"/>
+      <c r="I26" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="J26" s="25">
+        <v>1</v>
+      </c>
+      <c r="K26" s="16">
         <v>0.7286</v>
       </c>
-      <c r="K26" s="16">
+      <c r="L26" s="16">
         <v>-1</v>
       </c>
-      <c r="L26" s="16">
-        <v>1</v>
-      </c>
-      <c r="M26" s="15"/>
-      <c r="N26" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="O26" s="25">
-        <v>1</v>
-      </c>
-      <c r="P26" s="16">
+      <c r="M26" s="16">
+        <v>1</v>
+      </c>
+      <c r="N26" s="15"/>
+      <c r="O26" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="P26" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="16">
         <v>2.734</v>
       </c>
-      <c r="Q26" s="16">
+      <c r="R26" s="16">
         <v>-3</v>
       </c>
-      <c r="R26" s="16">
+      <c r="S26" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" s="19"/>
-      <c r="B27" t="s" s="32">
-        <v>24</v>
+      <c r="B27" t="s" s="33">
+        <v>25</v>
       </c>
       <c r="C27" s="25">
         <v>1</v>
@@ -2596,48 +2649,51 @@
         <v>66.06999999999999</v>
       </c>
       <c r="E27" s="16">
+        <v>0.175</v>
+      </c>
+      <c r="F27" s="16">
         <v>60</v>
       </c>
-      <c r="F27" s="16">
+      <c r="G27" s="16">
         <v>70</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="I27" s="25">
-        <v>1</v>
-      </c>
-      <c r="J27" s="16">
+      <c r="H27" s="15"/>
+      <c r="I27" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="J27" s="25">
+        <v>1</v>
+      </c>
+      <c r="K27" s="16">
         <v>67.01000000000001</v>
       </c>
-      <c r="K27" s="16">
+      <c r="L27" s="16">
         <v>65.48999999999999</v>
       </c>
-      <c r="L27" s="16">
+      <c r="M27" s="16">
         <v>67.48999999999999</v>
       </c>
-      <c r="M27" s="15"/>
-      <c r="N27" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="O27" s="25">
-        <v>1</v>
-      </c>
-      <c r="P27" s="16">
+      <c r="N27" s="15"/>
+      <c r="O27" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="P27" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="16">
         <v>66.42</v>
       </c>
-      <c r="Q27" s="16">
+      <c r="R27" s="16">
         <v>60</v>
       </c>
-      <c r="R27" s="16">
+      <c r="S27" s="16">
         <v>70</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" s="19"/>
       <c r="B28" t="s" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="25">
         <v>1</v>
@@ -2646,74 +2702,78 @@
         <v>108.1</v>
       </c>
       <c r="E28" s="16">
+        <v>0.033</v>
+      </c>
+      <c r="F28" s="16">
         <v>10</v>
       </c>
-      <c r="F28" s="16">
+      <c r="G28" s="16">
         <v>200</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="I28" s="25">
-        <v>1</v>
-      </c>
-      <c r="J28" s="16">
+      <c r="H28" s="15"/>
+      <c r="I28" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="J28" s="25">
+        <v>1</v>
+      </c>
+      <c r="K28" s="16">
         <v>107.9</v>
       </c>
-      <c r="K28" s="16">
+      <c r="L28" s="16">
         <v>8</v>
       </c>
-      <c r="L28" s="16">
+      <c r="M28" s="16">
         <v>208</v>
       </c>
-      <c r="M28" s="15"/>
-      <c r="N28" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="O28" s="25">
-        <v>1</v>
-      </c>
-      <c r="P28" s="16">
+      <c r="N28" s="15"/>
+      <c r="O28" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="P28" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="16">
         <v>108.1</v>
       </c>
-      <c r="Q28" s="16">
+      <c r="R28" s="16">
         <v>10</v>
       </c>
-      <c r="R28" s="16">
+      <c r="S28" s="16">
         <v>200</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" s="19"/>
-      <c r="B29" t="s" s="30">
-        <v>28</v>
+      <c r="B29" t="s" s="31">
+        <v>29</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
-      <c r="H29" t="s" s="31">
-        <v>28</v>
-      </c>
-      <c r="I29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" t="s" s="32">
+        <v>29</v>
+      </c>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29" t="s" s="31">
-        <v>28</v>
-      </c>
-      <c r="O29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" t="s" s="32">
+        <v>29</v>
+      </c>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" s="19"/>
       <c r="B30" t="s" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" s="25">
         <v>1</v>
@@ -2722,48 +2782,51 @@
         <v>3.711</v>
       </c>
       <c r="E30" s="16">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
         <v>13.657</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="I30" s="25">
-        <v>1</v>
-      </c>
-      <c r="J30" s="16">
+      <c r="H30" s="15"/>
+      <c r="I30" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="J30" s="25">
+        <v>1</v>
+      </c>
+      <c r="K30" s="16">
         <v>3.66</v>
       </c>
-      <c r="K30" s="16">
-        <v>0</v>
-      </c>
       <c r="L30" s="16">
+        <v>0</v>
+      </c>
+      <c r="M30" s="16">
         <v>13.657</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="O30" s="25">
-        <v>1</v>
-      </c>
-      <c r="P30" s="16">
+      <c r="N30" s="15"/>
+      <c r="O30" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="P30" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="16">
         <v>3.693</v>
       </c>
-      <c r="Q30" s="16">
-        <v>0</v>
-      </c>
       <c r="R30" s="16">
+        <v>0</v>
+      </c>
+      <c r="S30" s="16">
         <v>13.657</v>
       </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" s="19"/>
       <c r="B31" t="s" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31" s="25">
         <v>1</v>
@@ -2772,48 +2835,51 @@
         <v>12.24</v>
       </c>
       <c r="E31" s="16">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="F31" s="16">
         <v>-14</v>
       </c>
-      <c r="F31" s="16">
+      <c r="G31" s="16">
         <v>15</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="I31" s="25">
-        <v>1</v>
-      </c>
-      <c r="J31" s="16">
+      <c r="H31" s="15"/>
+      <c r="I31" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="J31" s="25">
+        <v>1</v>
+      </c>
+      <c r="K31" s="16">
         <v>8.451000000000001</v>
       </c>
-      <c r="K31" s="16">
+      <c r="L31" s="16">
         <v>6.451</v>
       </c>
-      <c r="L31" s="16">
+      <c r="M31" s="16">
         <v>8.451000000000001</v>
       </c>
-      <c r="M31" s="15"/>
-      <c r="N31" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="O31" s="25">
-        <v>1</v>
-      </c>
-      <c r="P31" s="16">
+      <c r="N31" s="15"/>
+      <c r="O31" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="P31" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="16">
         <v>11.91</v>
       </c>
-      <c r="Q31" s="16">
+      <c r="R31" s="16">
         <v>-14</v>
       </c>
-      <c r="R31" s="16">
+      <c r="S31" s="16">
         <v>15</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" s="19"/>
-      <c r="B32" t="s" s="32">
-        <v>24</v>
+      <c r="B32" t="s" s="33">
+        <v>25</v>
       </c>
       <c r="C32" s="25">
         <v>1</v>
@@ -2822,48 +2888,51 @@
         <v>132.5</v>
       </c>
       <c r="E32" s="16">
+        <v>0.123</v>
+      </c>
+      <c r="F32" s="16">
         <v>130</v>
       </c>
-      <c r="F32" s="16">
+      <c r="G32" s="16">
         <v>140</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="I32" s="25">
-        <v>1</v>
-      </c>
-      <c r="J32" s="16">
+      <c r="H32" s="15"/>
+      <c r="I32" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="J32" s="25">
+        <v>1</v>
+      </c>
+      <c r="K32" s="16">
         <v>134.5</v>
       </c>
-      <c r="K32" s="16">
+      <c r="L32" s="16">
         <v>132.9</v>
       </c>
-      <c r="L32" s="16">
+      <c r="M32" s="16">
         <v>134.9</v>
       </c>
-      <c r="M32" s="15"/>
-      <c r="N32" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="O32" s="25">
-        <v>1</v>
-      </c>
-      <c r="P32" s="16">
+      <c r="N32" s="15"/>
+      <c r="O32" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="P32" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="16">
         <v>132.6</v>
       </c>
-      <c r="Q32" s="16">
+      <c r="R32" s="16">
         <v>130</v>
       </c>
-      <c r="R32" s="16">
+      <c r="S32" s="16">
         <v>140</v>
       </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" s="19"/>
       <c r="B33" t="s" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33" s="25">
         <v>1</v>
@@ -2872,74 +2941,78 @@
         <v>49.54</v>
       </c>
       <c r="E33" s="16">
+        <v>0.019</v>
+      </c>
+      <c r="F33" s="16">
         <v>10</v>
       </c>
-      <c r="F33" s="16">
+      <c r="G33" s="16">
         <v>150</v>
       </c>
-      <c r="G33" s="15"/>
-      <c r="H33" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="I33" s="25">
-        <v>1</v>
-      </c>
-      <c r="J33" s="16">
+      <c r="H33" s="15"/>
+      <c r="I33" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="J33" s="25">
+        <v>1</v>
+      </c>
+      <c r="K33" s="16">
         <v>49.54</v>
       </c>
-      <c r="K33" s="16">
-        <v>0</v>
-      </c>
       <c r="L33" s="16">
+        <v>0</v>
+      </c>
+      <c r="M33" s="16">
         <v>149.49</v>
       </c>
-      <c r="M33" s="15"/>
-      <c r="N33" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="O33" s="25">
-        <v>1</v>
-      </c>
-      <c r="P33" s="16">
+      <c r="N33" s="15"/>
+      <c r="O33" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="P33" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="16">
         <v>49.55</v>
       </c>
-      <c r="Q33" s="16">
+      <c r="R33" s="16">
         <v>10</v>
       </c>
-      <c r="R33" s="16">
+      <c r="S33" s="16">
         <v>150</v>
       </c>
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" s="19"/>
-      <c r="B34" t="s" s="30">
-        <v>29</v>
+      <c r="B34" t="s" s="31">
+        <v>30</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
-      <c r="H34" t="s" s="31">
-        <v>29</v>
-      </c>
-      <c r="I34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" t="s" s="32">
+        <v>30</v>
+      </c>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
-      <c r="N34" t="s" s="31">
-        <v>29</v>
-      </c>
-      <c r="O34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" t="s" s="32">
+        <v>30</v>
+      </c>
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
       <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" s="19"/>
       <c r="B35" t="s" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35" s="25">
         <v>0</v>
@@ -2950,34 +3023,35 @@
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
-      <c r="H35" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="I35" s="25">
-        <v>0</v>
-      </c>
-      <c r="J35" s="16">
-        <v>0</v>
-      </c>
-      <c r="K35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="J35" s="25">
+        <v>0</v>
+      </c>
+      <c r="K35" s="16">
+        <v>0</v>
+      </c>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
-      <c r="N35" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="O35" s="25">
-        <v>0</v>
-      </c>
-      <c r="P35" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="P35" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="16">
+        <v>0</v>
+      </c>
       <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" s="19"/>
       <c r="B36" t="s" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C36" s="25">
         <v>0</v>
@@ -2988,34 +3062,35 @@
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
-      <c r="H36" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="I36" s="25">
-        <v>0</v>
-      </c>
-      <c r="J36" s="16">
-        <v>0</v>
-      </c>
-      <c r="K36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="J36" s="25">
+        <v>0</v>
+      </c>
+      <c r="K36" s="16">
+        <v>0</v>
+      </c>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
-      <c r="N36" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="O36" s="25">
-        <v>0</v>
-      </c>
-      <c r="P36" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="P36" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="16">
+        <v>0</v>
+      </c>
       <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" s="19"/>
-      <c r="B37" t="s" s="32">
-        <v>24</v>
+      <c r="B37" t="s" s="33">
+        <v>25</v>
       </c>
       <c r="C37" s="25">
         <v>0</v>
@@ -3026,34 +3101,35 @@
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
-      <c r="H37" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="I37" s="25">
-        <v>0</v>
-      </c>
-      <c r="J37" s="16">
-        <v>0</v>
-      </c>
-      <c r="K37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="J37" s="25">
+        <v>0</v>
+      </c>
+      <c r="K37" s="16">
+        <v>0</v>
+      </c>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
-      <c r="N37" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="O37" s="25">
-        <v>0</v>
-      </c>
-      <c r="P37" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="P37" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="16">
+        <v>0</v>
+      </c>
       <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" s="19"/>
       <c r="B38" t="s" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" s="25">
         <v>0</v>
@@ -3064,34 +3140,35 @@
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
-      <c r="H38" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="I38" s="25">
-        <v>0</v>
-      </c>
-      <c r="J38" s="16">
-        <v>0</v>
-      </c>
-      <c r="K38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="J38" s="25">
+        <v>0</v>
+      </c>
+      <c r="K38" s="16">
+        <v>0</v>
+      </c>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
-      <c r="N38" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="O38" s="25">
-        <v>0</v>
-      </c>
-      <c r="P38" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="P38" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="16">
+        <v>0</v>
+      </c>
       <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" s="19"/>
       <c r="B39" t="s" s="21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" s="25">
         <v>0</v>
@@ -3102,29 +3179,30 @@
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
-      <c r="H39" t="s" s="23">
-        <v>30</v>
-      </c>
-      <c r="I39" s="25">
-        <v>0</v>
-      </c>
-      <c r="J39" s="16">
+      <c r="H39" s="15"/>
+      <c r="I39" t="s" s="23">
+        <v>31</v>
+      </c>
+      <c r="J39" s="25">
+        <v>0</v>
+      </c>
+      <c r="K39" s="16">
         <v>188.7</v>
       </c>
-      <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
-      <c r="N39" t="s" s="23">
-        <v>30</v>
-      </c>
-      <c r="O39" s="25">
-        <v>0</v>
-      </c>
-      <c r="P39" s="16">
+      <c r="N39" s="15"/>
+      <c r="O39" t="s" s="23">
+        <v>31</v>
+      </c>
+      <c r="P39" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="16">
         <v>188.7</v>
       </c>
-      <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" s="19"/>
@@ -3145,25 +3223,26 @@
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="N24:R24"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="I34:M34"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="O29:S29"/>
+    <mergeCell ref="O34:S34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -3178,7 +3257,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AD44"/>
+  <dimension ref="A2:AI44"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -3186,16 +3265,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="16.3516" style="34" customWidth="1"/>
-    <col min="7" max="7" width="3.35156" style="34" customWidth="1"/>
-    <col min="8" max="12" width="16.3516" style="34" customWidth="1"/>
-    <col min="13" max="13" width="3.35156" style="34" customWidth="1"/>
-    <col min="14" max="18" width="16.3516" style="34" customWidth="1"/>
-    <col min="19" max="19" width="3.35156" style="34" customWidth="1"/>
-    <col min="20" max="24" width="16.3516" style="34" customWidth="1"/>
-    <col min="25" max="25" width="3.35156" style="34" customWidth="1"/>
-    <col min="26" max="30" width="16.3516" style="34" customWidth="1"/>
-    <col min="31" max="16384" width="16.3516" style="34" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="35" customWidth="1"/>
+    <col min="8" max="8" width="3.35156" style="35" customWidth="1"/>
+    <col min="9" max="14" width="16.3516" style="35" customWidth="1"/>
+    <col min="15" max="15" width="3.35156" style="35" customWidth="1"/>
+    <col min="16" max="21" width="16.3516" style="35" customWidth="1"/>
+    <col min="22" max="22" width="3.35156" style="35" customWidth="1"/>
+    <col min="23" max="28" width="16.3516" style="35" customWidth="1"/>
+    <col min="29" max="29" width="3.35156" style="35" customWidth="1"/>
+    <col min="30" max="35" width="16.3516" style="35" customWidth="1"/>
+    <col min="36" max="16384" width="16.3516" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -3231,6 +3310,11 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -3244,37 +3328,42 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="J2" s="4"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="4"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="U2" s="4"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
       <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
+      <c r="W2" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="X2" s="4"/>
       <c r="Y2" s="5"/>
-      <c r="Z2" t="s" s="3">
-        <v>34</v>
-      </c>
-      <c r="AA2" s="4"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
+      <c r="AD2" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="6">
@@ -3285,40 +3374,45 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="11">
+      <c r="H3" s="10"/>
+      <c r="I3" s="11">
         <v>15.667</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="10"/>
-      <c r="N3" s="11">
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="11">
         <v>10.1898</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="11">
+      <c r="Q3" s="8"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="11">
         <v>5.10006</v>
       </c>
-      <c r="U3" s="8"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="11">
+      <c r="X3" s="8"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="11">
         <v>6.7668</v>
       </c>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="12">
@@ -3333,41 +3427,46 @@
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="16">
-        <f>SUM(I3:I44)</f>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16">
+        <f>SUM(J3:J44)</f>
         <v>19</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="16">
-        <f>SUM(O9:O40)</f>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="16">
+        <f>SUM(Q9:Q40)</f>
         <v>19</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
+      <c r="Q4" s="14"/>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
-      <c r="T4" s="16">
-        <f>SUM(U9:U40)</f>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="16">
+        <f>SUM(X9:X40)</f>
         <v>19</v>
       </c>
-      <c r="U4" s="14"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
+      <c r="X4" s="14"/>
       <c r="Y4" s="15"/>
-      <c r="Z4" s="16">
-        <f>SUM(AA9:AA40)</f>
-        <v>19</v>
-      </c>
-      <c r="AA4" s="14"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
       <c r="AB4" s="15"/>
       <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
+      <c r="AD4" s="16">
+        <f>SUM(AE9:AE40)</f>
+        <v>19</v>
+      </c>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="12">
@@ -3381,37 +3480,42 @@
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="16">
+      <c r="H5" s="15"/>
+      <c r="I5" s="16">
         <v>373</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="16">
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="16">
         <v>373</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
-      <c r="T5" s="16">
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="16">
         <v>373</v>
       </c>
-      <c r="U5" s="14"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
+      <c r="X5" s="14"/>
       <c r="Y5" s="15"/>
-      <c r="Z5" s="16">
-        <v>373</v>
-      </c>
-      <c r="AA5" s="14"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
       <c r="AB5" s="15"/>
       <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
+      <c r="AD5" s="16">
+        <v>373</v>
+      </c>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="12">
@@ -3426,41 +3530,46 @@
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="18">
-        <f>(H5-H4)*H3+H4*LN(H5)</f>
+      <c r="H6" s="15"/>
+      <c r="I6" s="18">
+        <f>(I5-I4)*I3+I4*LN(I5)</f>
         <v>5658.627989973230</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
-      <c r="N6" s="18">
-        <f>(N5-N4)*N3+N4*LN(N5)</f>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="18">
+        <f>(P5-P4)*P3+P4*LN(P5)</f>
         <v>3719.699189973230</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
-      <c r="T6" s="18">
-        <f>(T5-T4)*T3+T4*LN(T5)</f>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="18">
+        <f>(W5-W4)*W3+W4*LN(W5)</f>
         <v>1917.931229973230</v>
       </c>
-      <c r="U6" s="14"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
+      <c r="X6" s="14"/>
       <c r="Y6" s="15"/>
-      <c r="Z6" s="18">
-        <f>(Z5-Z4)*Z3+Z4*LN(Z5)</f>
-        <v>2507.957189973230</v>
-      </c>
-      <c r="AA6" s="14"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
       <c r="AB6" s="15"/>
       <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
+      <c r="AD6" s="18">
+        <f>(AD5-AD4)*AD3+AD4*LN(AD5)</f>
+        <v>2507.957189973230</v>
+      </c>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="19"/>
@@ -3471,28 +3580,33 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="14"/>
+      <c r="O7" s="15"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
+      <c r="Q7" s="14"/>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
-      <c r="U7" s="14"/>
+      <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
+      <c r="X7" s="14"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
-      <c r="AA7" s="14"/>
+      <c r="AA7" s="15"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="12">
@@ -3513,77 +3627,92 @@
       <c r="F8" t="s" s="23">
         <v>14</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" t="s" s="23">
+      <c r="G8" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" t="s" s="23">
         <v>10</v>
       </c>
-      <c r="I8" t="s" s="22">
+      <c r="J8" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="J8" t="s" s="23">
+      <c r="K8" t="s" s="23">
         <v>12</v>
       </c>
-      <c r="K8" t="s" s="23">
+      <c r="L8" t="s" s="23">
         <v>13</v>
       </c>
-      <c r="L8" t="s" s="23">
+      <c r="M8" t="s" s="23">
         <v>14</v>
       </c>
-      <c r="M8" s="35"/>
       <c r="N8" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="O8" s="36"/>
+      <c r="P8" t="s" s="23">
         <v>10</v>
       </c>
-      <c r="O8" t="s" s="22">
+      <c r="Q8" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="P8" t="s" s="23">
+      <c r="R8" t="s" s="23">
         <v>12</v>
       </c>
-      <c r="Q8" t="s" s="23">
+      <c r="S8" t="s" s="23">
         <v>13</v>
       </c>
-      <c r="R8" t="s" s="23">
+      <c r="T8" t="s" s="23">
         <v>14</v>
       </c>
-      <c r="S8" s="35"/>
-      <c r="T8" t="s" s="23">
+      <c r="U8" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="V8" s="36"/>
+      <c r="W8" t="s" s="23">
         <v>10</v>
       </c>
-      <c r="U8" t="s" s="22">
+      <c r="X8" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="V8" t="s" s="23">
+      <c r="Y8" t="s" s="23">
         <v>12</v>
       </c>
-      <c r="W8" t="s" s="23">
+      <c r="Z8" t="s" s="23">
         <v>13</v>
       </c>
-      <c r="X8" t="s" s="23">
+      <c r="AA8" t="s" s="23">
         <v>14</v>
       </c>
-      <c r="Y8" s="35"/>
-      <c r="Z8" t="s" s="23">
+      <c r="AB8" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="AC8" s="36"/>
+      <c r="AD8" t="s" s="23">
         <v>10</v>
       </c>
-      <c r="AA8" t="s" s="22">
+      <c r="AE8" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="AB8" t="s" s="23">
+      <c r="AF8" t="s" s="23">
         <v>12</v>
       </c>
-      <c r="AC8" t="s" s="23">
+      <c r="AG8" t="s" s="23">
         <v>13</v>
       </c>
-      <c r="AD8" t="s" s="23">
+      <c r="AH8" t="s" s="23">
         <v>14</v>
+      </c>
+      <c r="AI8" t="s" s="23">
+        <v>15</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="25">
         <v>0</v>
@@ -3594,58 +3723,63 @@
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
-      <c r="H9" t="s" s="26">
-        <v>16</v>
-      </c>
-      <c r="I9" s="25">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16">
-        <v>1</v>
-      </c>
-      <c r="K9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
+        <v>1</v>
+      </c>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
-      <c r="N9" t="s" s="26">
-        <v>16</v>
-      </c>
-      <c r="O9" s="25">
-        <v>0</v>
-      </c>
-      <c r="P9" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16">
+        <v>1</v>
+      </c>
       <c r="S9" s="15"/>
-      <c r="T9" t="s" s="26">
-        <v>16</v>
-      </c>
-      <c r="U9" s="25">
-        <v>0</v>
-      </c>
-      <c r="V9" s="16">
-        <v>1</v>
-      </c>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" t="s" s="26">
-        <v>16</v>
-      </c>
-      <c r="AA9" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="16">
-        <v>1</v>
-      </c>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="X9" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
       <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
+      <c r="AD9" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="AE9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="16">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" t="s" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="25">
         <v>1</v>
@@ -3653,81 +3787,96 @@
       <c r="D10" s="27">
         <v>2.664e-08</v>
       </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="28">
+      <c r="E10" s="28">
+        <v>8.743e-10</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29">
         <v>1e-05</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" t="s" s="26">
-        <v>17</v>
-      </c>
-      <c r="I10" s="25">
-        <v>1</v>
-      </c>
-      <c r="J10" s="27">
+      <c r="H10" s="15"/>
+      <c r="I10" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="J10" s="25">
+        <v>1</v>
+      </c>
+      <c r="K10" s="27">
         <v>1.985e-08</v>
       </c>
-      <c r="K10" s="16">
-        <v>0</v>
-      </c>
       <c r="L10" s="28">
+        <v>8.728e-10</v>
+      </c>
+      <c r="M10" s="16">
+        <v>0</v>
+      </c>
+      <c r="N10" s="29">
         <v>1e-05</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" t="s" s="26">
-        <v>17</v>
-      </c>
-      <c r="O10" s="25">
-        <v>1</v>
-      </c>
-      <c r="P10" s="27">
+      <c r="O10" s="15"/>
+      <c r="P10" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>1</v>
+      </c>
+      <c r="R10" s="27">
         <v>2.205e-08</v>
       </c>
-      <c r="Q10" s="16">
-        <v>0</v>
-      </c>
-      <c r="R10" s="28">
+      <c r="S10" s="28">
+        <v>8.604e-10</v>
+      </c>
+      <c r="T10" s="16">
+        <v>0</v>
+      </c>
+      <c r="U10" s="29">
         <v>1e-05</v>
       </c>
-      <c r="S10" s="15"/>
-      <c r="T10" t="s" s="26">
-        <v>17</v>
-      </c>
-      <c r="U10" s="25">
-        <v>1</v>
-      </c>
-      <c r="V10" s="27">
+      <c r="V10" s="15"/>
+      <c r="W10" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="X10" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="27">
         <v>3.51e-09</v>
       </c>
-      <c r="W10" s="16">
-        <v>0</v>
-      </c>
-      <c r="X10" s="28">
+      <c r="Z10" s="37">
+        <v>1.074e-09</v>
+      </c>
+      <c r="AA10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="29">
         <v>1e-05</v>
       </c>
-      <c r="Y10" s="15"/>
-      <c r="Z10" t="s" s="26">
-        <v>17</v>
-      </c>
-      <c r="AA10" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="36">
+      <c r="AC10" s="15"/>
+      <c r="AD10" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="AE10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="37">
         <v>8.249e-09</v>
       </c>
-      <c r="AC10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="28">
+      <c r="AG10" s="27">
+        <v>1.07e-09</v>
+      </c>
+      <c r="AH10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="29">
         <v>1e-05</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="19"/>
       <c r="B11" t="s" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="25">
         <v>1</v>
@@ -3736,80 +3885,95 @@
         <v>1.087</v>
       </c>
       <c r="E11" s="16">
+        <v>0.0026</v>
+      </c>
+      <c r="F11" s="16">
         <v>0.95</v>
       </c>
-      <c r="F11" s="16">
+      <c r="G11" s="16">
         <v>1.1</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="I11" s="25">
-        <v>1</v>
-      </c>
-      <c r="J11" s="16">
+      <c r="H11" s="15"/>
+      <c r="I11" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="J11" s="25">
+        <v>1</v>
+      </c>
+      <c r="K11" s="16">
         <v>1.074</v>
       </c>
-      <c r="K11" s="16">
+      <c r="L11" s="16">
+        <v>0.003</v>
+      </c>
+      <c r="M11" s="16">
         <v>0.95</v>
       </c>
-      <c r="L11" s="16">
+      <c r="N11" s="16">
         <v>1.05</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="O11" s="25">
-        <v>1</v>
-      </c>
-      <c r="P11" s="16">
+      <c r="O11" s="15"/>
+      <c r="P11" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>1</v>
+      </c>
+      <c r="R11" s="16">
         <v>1.034</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="S11" s="16">
+        <v>0.003</v>
+      </c>
+      <c r="T11" s="16">
         <v>0.95</v>
       </c>
-      <c r="R11" s="16">
+      <c r="U11" s="16">
         <v>1.05</v>
       </c>
-      <c r="S11" s="15"/>
-      <c r="T11" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="U11" s="25">
-        <v>1</v>
-      </c>
-      <c r="V11" s="16">
+      <c r="V11" s="15"/>
+      <c r="W11" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="X11" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="16">
         <v>1.065</v>
       </c>
-      <c r="W11" s="16">
+      <c r="Z11" s="16">
+        <v>0.005</v>
+      </c>
+      <c r="AA11" s="16">
         <v>0.95</v>
       </c>
-      <c r="X11" s="16">
+      <c r="AB11" s="16">
         <v>1.1</v>
       </c>
-      <c r="Y11" s="15"/>
-      <c r="Z11" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="AA11" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="16">
+      <c r="AC11" s="15"/>
+      <c r="AD11" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="AE11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="16">
         <v>1.016</v>
       </c>
-      <c r="AC11" s="16">
+      <c r="AG11" s="16">
+        <v>0.004</v>
+      </c>
+      <c r="AH11" s="16">
         <v>0.95</v>
       </c>
-      <c r="AD11" s="16">
+      <c r="AI11" s="16">
         <v>1.05</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" t="s" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="25">
         <v>0</v>
@@ -3820,58 +3984,63 @@
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
-      <c r="H12" t="s" s="26">
-        <v>19</v>
-      </c>
-      <c r="I12" s="25">
-        <v>0</v>
-      </c>
-      <c r="J12" s="16">
-        <v>0</v>
-      </c>
-      <c r="K12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="J12" s="25">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0</v>
+      </c>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
-      <c r="N12" t="s" s="26">
-        <v>19</v>
-      </c>
-      <c r="O12" s="25">
-        <v>0</v>
-      </c>
-      <c r="P12" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>0</v>
+      </c>
+      <c r="R12" s="16">
+        <v>0</v>
+      </c>
       <c r="S12" s="15"/>
-      <c r="T12" t="s" s="26">
-        <v>19</v>
-      </c>
-      <c r="U12" s="25">
-        <v>0</v>
-      </c>
-      <c r="V12" s="16">
-        <v>0</v>
-      </c>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" t="s" s="26">
-        <v>19</v>
-      </c>
-      <c r="AA12" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="16">
-        <v>0</v>
-      </c>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="X12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
       <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
+      <c r="AD12" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="AE12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="19"/>
       <c r="B13" t="s" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
@@ -3882,100 +4051,110 @@
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" t="s" s="26">
-        <v>20</v>
-      </c>
-      <c r="I13" s="25">
-        <v>0</v>
-      </c>
-      <c r="J13" s="16">
-        <v>0</v>
-      </c>
-      <c r="K13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" t="s" s="26">
+        <v>21</v>
+      </c>
+      <c r="J13" s="25">
+        <v>0</v>
+      </c>
+      <c r="K13" s="16">
+        <v>0</v>
+      </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" t="s" s="26">
-        <v>20</v>
-      </c>
-      <c r="O13" s="25">
-        <v>0</v>
-      </c>
-      <c r="P13" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" t="s" s="26">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>0</v>
+      </c>
+      <c r="R13" s="16">
+        <v>0</v>
+      </c>
       <c r="S13" s="15"/>
-      <c r="T13" t="s" s="26">
-        <v>20</v>
-      </c>
-      <c r="U13" s="25">
-        <v>0</v>
-      </c>
-      <c r="V13" s="16">
-        <v>0</v>
-      </c>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" t="s" s="26">
-        <v>20</v>
-      </c>
-      <c r="AA13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="16">
-        <v>0</v>
-      </c>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" t="s" s="26">
+        <v>21</v>
+      </c>
+      <c r="X13" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
       <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
+      <c r="AD13" t="s" s="26">
+        <v>21</v>
+      </c>
+      <c r="AE13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="B14" t="s" s="30">
-        <v>21</v>
+      <c r="B14" t="s" s="31">
+        <v>22</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
-      <c r="H14" t="s" s="31">
-        <v>21</v>
-      </c>
-      <c r="I14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" t="s" s="32">
+        <v>22</v>
+      </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="37"/>
-      <c r="N14" t="s" s="31">
-        <v>21</v>
-      </c>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="38"/>
+      <c r="P14" t="s" s="32">
+        <v>22</v>
+      </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
-      <c r="S14" s="37"/>
-      <c r="T14" t="s" s="31">
-        <v>21</v>
-      </c>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
       <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
+      <c r="V14" s="38"/>
+      <c r="W14" t="s" s="32">
+        <v>22</v>
+      </c>
       <c r="X14" s="15"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" t="s" s="31">
-        <v>21</v>
-      </c>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
       <c r="AA14" s="15"/>
       <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" t="s" s="32">
+        <v>22</v>
+      </c>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="19"/>
       <c r="B15" t="s" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="25">
         <v>1</v>
@@ -3984,80 +4163,95 @@
         <v>17.33</v>
       </c>
       <c r="E15" s="16">
+        <v>0.55</v>
+      </c>
+      <c r="F15" s="16">
         <v>8.65</v>
       </c>
-      <c r="F15" s="16">
+      <c r="G15" s="16">
         <v>28.65</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="I15" s="25">
-        <v>1</v>
-      </c>
-      <c r="J15" s="16">
+      <c r="H15" s="15"/>
+      <c r="I15" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="J15" s="25">
+        <v>1</v>
+      </c>
+      <c r="K15" s="16">
         <v>14.75</v>
       </c>
-      <c r="K15" s="16">
+      <c r="L15" s="16">
+        <v>0.021</v>
+      </c>
+      <c r="M15" s="16">
         <v>8.65</v>
       </c>
-      <c r="L15" s="16">
+      <c r="N15" s="16">
         <v>28.65</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="O15" s="25">
-        <v>1</v>
-      </c>
-      <c r="P15" s="16">
+      <c r="O15" s="15"/>
+      <c r="P15" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>1</v>
+      </c>
+      <c r="R15" s="16">
         <v>12.06</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="S15" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="T15" s="16">
         <v>8.65</v>
       </c>
-      <c r="R15" s="16">
+      <c r="U15" s="16">
         <v>28.65</v>
       </c>
-      <c r="S15" s="15"/>
-      <c r="T15" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="U15" s="25">
-        <v>1</v>
-      </c>
-      <c r="V15" s="16">
+      <c r="V15" s="15"/>
+      <c r="W15" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="X15" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="16">
         <v>0.07000000000000001</v>
       </c>
-      <c r="W15" s="16">
-        <v>0</v>
-      </c>
-      <c r="X15" s="16">
+      <c r="Z15" s="16">
+        <v>0.148</v>
+      </c>
+      <c r="AA15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="16">
         <v>28.65</v>
       </c>
-      <c r="Y15" s="15"/>
-      <c r="Z15" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="AA15" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="16">
+      <c r="AC15" s="15"/>
+      <c r="AD15" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="AE15" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="16">
         <v>13.37</v>
       </c>
-      <c r="AC15" s="16">
+      <c r="AG15" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="AH15" s="16">
         <v>8.65</v>
       </c>
-      <c r="AD15" s="16">
+      <c r="AI15" s="16">
         <v>28.65</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="19"/>
       <c r="B16" t="s" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="25">
         <v>0</v>
@@ -4068,58 +4262,63 @@
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-      <c r="H16" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="I16" s="25">
-        <v>0</v>
-      </c>
-      <c r="J16" s="16">
+      <c r="H16" s="15"/>
+      <c r="I16" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="J16" s="25">
+        <v>0</v>
+      </c>
+      <c r="K16" s="16">
         <v>-0.458</v>
       </c>
-      <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
-      <c r="N16" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="O16" s="25">
-        <v>0</v>
-      </c>
-      <c r="P16" s="16">
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>0</v>
+      </c>
+      <c r="R16" s="16">
         <v>-0.458</v>
       </c>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
       <c r="S16" s="15"/>
-      <c r="T16" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="U16" s="25">
-        <v>0</v>
-      </c>
-      <c r="V16" s="16">
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="X16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="16">
         <v>-0.458</v>
       </c>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="AA16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="16">
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="AE16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="16">
         <v>0.458</v>
       </c>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="19"/>
-      <c r="B17" t="s" s="32">
-        <v>24</v>
+      <c r="B17" t="s" s="33">
+        <v>25</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
@@ -4130,58 +4329,63 @@
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="I17" s="25">
-        <v>0</v>
-      </c>
-      <c r="J17" s="16">
+      <c r="H17" s="15"/>
+      <c r="I17" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="J17" s="25">
+        <v>0</v>
+      </c>
+      <c r="K17" s="16">
         <v>20.07</v>
       </c>
-      <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
-      <c r="N17" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="O17" s="25">
-        <v>0</v>
-      </c>
-      <c r="P17" s="16">
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>0</v>
+      </c>
+      <c r="R17" s="16">
         <v>20.07</v>
       </c>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
       <c r="S17" s="15"/>
-      <c r="T17" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="U17" s="25">
-        <v>0</v>
-      </c>
-      <c r="V17" s="16">
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="X17" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="16">
         <v>20.07</v>
       </c>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="AA17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="16">
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="AE17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="16">
         <v>20.07</v>
       </c>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="30"/>
       <c r="B18" t="s" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="25">
         <v>0</v>
@@ -4192,100 +4396,110 @@
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
-      <c r="H18" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="I18" s="25">
-        <v>0</v>
-      </c>
-      <c r="J18" s="16">
-        <v>0</v>
-      </c>
-      <c r="K18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="J18" s="25">
+        <v>0</v>
+      </c>
+      <c r="K18" s="16">
+        <v>0</v>
+      </c>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
-      <c r="N18" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="O18" s="25">
-        <v>0</v>
-      </c>
-      <c r="P18" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>0</v>
+      </c>
+      <c r="R18" s="16">
+        <v>0</v>
+      </c>
       <c r="S18" s="15"/>
-      <c r="T18" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="U18" s="25">
-        <v>0</v>
-      </c>
-      <c r="V18" s="16">
-        <v>0</v>
-      </c>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="AA18" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="16">
-        <v>0</v>
-      </c>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="X18" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
       <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
+      <c r="AD18" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="AE18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="19"/>
-      <c r="B19" t="s" s="30">
-        <v>26</v>
+      <c r="B19" t="s" s="31">
+        <v>27</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
-      <c r="H19" t="s" s="31">
-        <v>35</v>
-      </c>
-      <c r="I19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" t="s" s="32">
+        <v>36</v>
+      </c>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="37"/>
-      <c r="N19" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="38"/>
+      <c r="P19" t="s" s="32">
+        <v>27</v>
+      </c>
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
-      <c r="S19" s="37"/>
-      <c r="T19" t="s" s="31">
-        <v>26</v>
-      </c>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
+      <c r="V19" s="38"/>
+      <c r="W19" t="s" s="32">
+        <v>27</v>
+      </c>
       <c r="X19" s="15"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" t="s" s="31">
-        <v>26</v>
-      </c>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
       <c r="AA19" s="15"/>
       <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="19"/>
       <c r="B20" t="s" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="25">
         <v>1</v>
@@ -4294,80 +4508,95 @@
         <v>3.322</v>
       </c>
       <c r="E20" s="16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16">
         <v>13.224</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="I20" s="25">
-        <v>1</v>
-      </c>
-      <c r="J20" s="16">
+      <c r="H20" s="15"/>
+      <c r="I20" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="J20" s="25">
+        <v>1</v>
+      </c>
+      <c r="K20" s="16">
         <v>2.633</v>
       </c>
-      <c r="K20" s="16">
-        <v>0</v>
-      </c>
       <c r="L20" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="M20" s="16">
+        <v>0</v>
+      </c>
+      <c r="N20" s="16">
         <v>50</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="N20" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="O20" s="25">
-        <v>1</v>
-      </c>
-      <c r="P20" s="16">
+      <c r="O20" s="15"/>
+      <c r="P20" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>1</v>
+      </c>
+      <c r="R20" s="16">
         <v>3.262</v>
       </c>
-      <c r="Q20" s="16">
-        <v>0</v>
-      </c>
-      <c r="R20" s="16">
+      <c r="S20" s="16">
+        <v>0.011</v>
+      </c>
+      <c r="T20" s="16">
+        <v>0</v>
+      </c>
+      <c r="U20" s="16">
         <v>13.224</v>
       </c>
-      <c r="S20" s="15"/>
-      <c r="T20" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="U20" s="25">
-        <v>1</v>
-      </c>
-      <c r="V20" s="16">
+      <c r="V20" s="15"/>
+      <c r="W20" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="X20" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="16">
         <v>3.383</v>
       </c>
-      <c r="W20" s="16">
-        <v>0</v>
-      </c>
-      <c r="X20" s="16">
+      <c r="Z20" s="16">
+        <v>0.012</v>
+      </c>
+      <c r="AA20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="16">
         <v>13.224</v>
       </c>
-      <c r="Y20" s="15"/>
-      <c r="Z20" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="AA20" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="16">
+      <c r="AC20" s="15"/>
+      <c r="AD20" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="AE20" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="16">
         <v>3.425</v>
       </c>
-      <c r="AC20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="16">
+      <c r="AG20" s="16">
+        <v>0.011</v>
+      </c>
+      <c r="AH20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="16">
         <v>13.224</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="19"/>
       <c r="B21" t="s" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="25">
         <v>1</v>
@@ -4376,80 +4605,95 @@
         <v>6.436</v>
       </c>
       <c r="E21" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="F21" s="16">
         <v>-0.5</v>
       </c>
-      <c r="F21" s="16">
+      <c r="G21" s="16">
         <v>15</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="I21" s="25">
-        <v>1</v>
-      </c>
-      <c r="J21" s="16">
+      <c r="H21" s="15"/>
+      <c r="I21" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="J21" s="25">
+        <v>1</v>
+      </c>
+      <c r="K21" s="16">
         <v>23.48</v>
       </c>
-      <c r="K21" s="16">
+      <c r="L21" s="16">
+        <v>0.88</v>
+      </c>
+      <c r="M21" s="16">
         <v>-0.5</v>
       </c>
-      <c r="L21" s="16">
+      <c r="N21" s="16">
         <v>50</v>
       </c>
-      <c r="M21" s="15"/>
-      <c r="N21" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="O21" s="25">
-        <v>1</v>
-      </c>
-      <c r="P21" s="16">
+      <c r="O21" s="15"/>
+      <c r="P21" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>1</v>
+      </c>
+      <c r="R21" s="16">
         <v>-0.3861</v>
       </c>
-      <c r="Q21" s="16">
+      <c r="S21" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="T21" s="16">
         <v>-0.5</v>
       </c>
-      <c r="R21" s="16">
+      <c r="U21" s="16">
         <v>50</v>
       </c>
-      <c r="S21" s="15"/>
-      <c r="T21" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="U21" s="25">
-        <v>1</v>
-      </c>
-      <c r="V21" s="16">
+      <c r="V21" s="15"/>
+      <c r="W21" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="X21" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="16">
         <v>0.7264</v>
       </c>
-      <c r="W21" s="16">
+      <c r="Z21" s="16">
+        <v>0.173</v>
+      </c>
+      <c r="AA21" s="16">
         <v>-0.5</v>
       </c>
-      <c r="X21" s="16">
+      <c r="AB21" s="16">
         <v>15</v>
       </c>
-      <c r="Y21" s="15"/>
-      <c r="Z21" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="AA21" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="16">
+      <c r="AC21" s="15"/>
+      <c r="AD21" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="AE21" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="16">
         <v>6.255</v>
       </c>
-      <c r="AC21" s="16">
+      <c r="AG21" s="16">
+        <v>0.49</v>
+      </c>
+      <c r="AH21" s="16">
         <v>-0.5</v>
       </c>
-      <c r="AD21" s="16">
+      <c r="AI21" s="16">
         <v>15</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="19"/>
-      <c r="B22" t="s" s="32">
-        <v>24</v>
+      <c r="B22" t="s" s="33">
+        <v>25</v>
       </c>
       <c r="C22" s="25">
         <v>1</v>
@@ -4458,80 +4702,95 @@
         <v>30.37</v>
       </c>
       <c r="E22" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="F22" s="16">
         <v>15</v>
       </c>
-      <c r="F22" s="16">
+      <c r="G22" s="16">
         <v>40</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="I22" s="25">
-        <v>1</v>
-      </c>
-      <c r="J22" s="16">
+      <c r="H22" s="15"/>
+      <c r="I22" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="J22" s="25">
+        <v>1</v>
+      </c>
+      <c r="K22" s="16">
         <v>27.09</v>
       </c>
-      <c r="K22" s="16">
+      <c r="L22" s="16">
+        <v>0.64</v>
+      </c>
+      <c r="M22" s="16">
         <v>-10</v>
       </c>
-      <c r="L22" s="16">
+      <c r="N22" s="16">
         <v>40</v>
       </c>
-      <c r="M22" s="15"/>
-      <c r="N22" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="O22" s="25">
-        <v>1</v>
-      </c>
-      <c r="P22" s="16">
+      <c r="O22" s="15"/>
+      <c r="P22" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>1</v>
+      </c>
+      <c r="R22" s="16">
         <v>26.25</v>
       </c>
-      <c r="Q22" s="16">
+      <c r="S22" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="T22" s="16">
         <v>15</v>
       </c>
-      <c r="R22" s="16">
+      <c r="U22" s="16">
         <v>40</v>
       </c>
-      <c r="S22" s="15"/>
-      <c r="T22" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="U22" s="25">
-        <v>1</v>
-      </c>
-      <c r="V22" s="16">
+      <c r="V22" s="15"/>
+      <c r="W22" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="X22" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="16">
         <v>21.31</v>
       </c>
-      <c r="W22" s="16">
+      <c r="Z22" s="16">
+        <v>0.163</v>
+      </c>
+      <c r="AA22" s="16">
         <v>15</v>
       </c>
-      <c r="X22" s="16">
+      <c r="AB22" s="16">
         <v>40</v>
       </c>
-      <c r="Y22" s="15"/>
-      <c r="Z22" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="AA22" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="16">
+      <c r="AC22" s="15"/>
+      <c r="AD22" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="AE22" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="16">
         <v>24.27</v>
       </c>
-      <c r="AC22" s="16">
+      <c r="AG22" s="16">
+        <v>0.32</v>
+      </c>
+      <c r="AH22" s="16">
         <v>15</v>
       </c>
-      <c r="AD22" s="16">
+      <c r="AI22" s="16">
         <v>40</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="19"/>
       <c r="B23" t="s" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="25">
         <v>1</v>
@@ -4540,122 +4799,142 @@
         <v>29.32</v>
       </c>
       <c r="E23" s="16">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="F23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16">
         <v>140</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="I23" s="25">
-        <v>1</v>
-      </c>
-      <c r="J23" s="16">
+      <c r="H23" s="15"/>
+      <c r="I23" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="J23" s="25">
+        <v>1</v>
+      </c>
+      <c r="K23" s="16">
         <v>39.23</v>
       </c>
-      <c r="K23" s="16">
-        <v>0</v>
-      </c>
       <c r="L23" s="16">
+        <v>0.54</v>
+      </c>
+      <c r="M23" s="16">
+        <v>0</v>
+      </c>
+      <c r="N23" s="16">
         <v>140</v>
       </c>
-      <c r="M23" s="15"/>
-      <c r="N23" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="O23" s="25">
-        <v>1</v>
-      </c>
-      <c r="P23" s="16">
+      <c r="O23" s="15"/>
+      <c r="P23" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="Q23" s="25">
+        <v>1</v>
+      </c>
+      <c r="R23" s="16">
         <v>28.26</v>
       </c>
-      <c r="Q23" s="16">
-        <v>0</v>
-      </c>
-      <c r="R23" s="16">
+      <c r="S23" s="16">
+        <v>0.71</v>
+      </c>
+      <c r="T23" s="16">
+        <v>0</v>
+      </c>
+      <c r="U23" s="16">
         <v>140</v>
       </c>
-      <c r="S23" s="15"/>
-      <c r="T23" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="U23" s="25">
-        <v>1</v>
-      </c>
-      <c r="V23" s="16">
+      <c r="V23" s="15"/>
+      <c r="W23" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="X23" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="16">
         <v>8.994999999999999</v>
       </c>
-      <c r="W23" s="16">
-        <v>0</v>
-      </c>
-      <c r="X23" s="16">
+      <c r="Z23" s="16">
+        <v>0.34</v>
+      </c>
+      <c r="AA23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="16">
         <v>140</v>
       </c>
-      <c r="Y23" s="15"/>
-      <c r="Z23" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="AA23" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="16">
+      <c r="AC23" s="15"/>
+      <c r="AD23" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="AE23" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="16">
         <v>38.22</v>
       </c>
-      <c r="AC23" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="16">
+      <c r="AG23" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="AH23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="16">
         <v>140</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" s="19"/>
-      <c r="B24" t="s" s="30">
-        <v>27</v>
+      <c r="B24" t="s" s="31">
+        <v>28</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="I24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" t="s" s="32">
+        <v>27</v>
+      </c>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
-      <c r="M24" s="37"/>
-      <c r="N24" t="s" s="31">
-        <v>35</v>
-      </c>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="38"/>
+      <c r="P24" t="s" s="32">
+        <v>36</v>
+      </c>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
-      <c r="S24" s="37"/>
-      <c r="T24" t="s" s="31">
-        <v>27</v>
-      </c>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
+      <c r="V24" s="38"/>
+      <c r="W24" t="s" s="32">
+        <v>28</v>
+      </c>
       <c r="X24" s="15"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" t="s" s="31">
-        <v>27</v>
-      </c>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
       <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" t="s" s="32">
+        <v>28</v>
+      </c>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" s="19"/>
       <c r="B25" t="s" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="25">
         <v>1</v>
@@ -4664,80 +4943,95 @@
         <v>6.603</v>
       </c>
       <c r="E25" s="16">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="F25" s="16">
+        <v>0</v>
+      </c>
+      <c r="G25" s="16">
         <v>16.751</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="I25" s="25">
-        <v>1</v>
-      </c>
-      <c r="J25" s="16">
+      <c r="H25" s="15"/>
+      <c r="I25" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="J25" s="25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="16">
         <v>4.678</v>
       </c>
-      <c r="K25" s="16">
-        <v>0</v>
-      </c>
       <c r="L25" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="M25" s="16">
+        <v>0</v>
+      </c>
+      <c r="N25" s="16">
         <v>13.224</v>
       </c>
-      <c r="M25" s="15"/>
-      <c r="N25" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="O25" s="25">
-        <v>1</v>
-      </c>
-      <c r="P25" s="16">
+      <c r="O25" s="15"/>
+      <c r="P25" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="25">
+        <v>1</v>
+      </c>
+      <c r="R25" s="16">
         <v>15.19</v>
       </c>
-      <c r="Q25" s="16">
-        <v>0</v>
-      </c>
-      <c r="R25" s="16">
+      <c r="S25" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="T25" s="16">
+        <v>0</v>
+      </c>
+      <c r="U25" s="16">
         <v>50</v>
       </c>
-      <c r="S25" s="15"/>
-      <c r="T25" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="U25" s="25">
-        <v>1</v>
-      </c>
-      <c r="V25" s="16">
+      <c r="V25" s="15"/>
+      <c r="W25" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="X25" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="16">
         <v>6.625</v>
       </c>
-      <c r="W25" s="16">
-        <v>0</v>
-      </c>
-      <c r="X25" s="16">
+      <c r="Z25" s="16">
+        <v>0.0133</v>
+      </c>
+      <c r="AA25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="16">
         <v>16.751</v>
       </c>
-      <c r="Y25" s="15"/>
-      <c r="Z25" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="AA25" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="16">
+      <c r="AC25" s="15"/>
+      <c r="AD25" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="AE25" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="16">
         <v>6.561</v>
       </c>
-      <c r="AC25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="16">
+      <c r="AG25" s="16">
+        <v>0.013</v>
+      </c>
+      <c r="AH25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="16">
         <v>16.751</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" s="19"/>
       <c r="B26" t="s" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" s="25">
         <v>1</v>
@@ -4746,80 +5040,95 @@
         <v>2.904</v>
       </c>
       <c r="E26" s="16">
+        <v>0.202</v>
+      </c>
+      <c r="F26" s="16">
         <v>-3</v>
       </c>
-      <c r="F26" s="16">
+      <c r="G26" s="16">
         <v>10</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="I26" s="25">
-        <v>1</v>
-      </c>
-      <c r="J26" s="16">
+      <c r="H26" s="15"/>
+      <c r="I26" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="J26" s="25">
+        <v>1</v>
+      </c>
+      <c r="K26" s="16">
         <v>-0.372</v>
       </c>
-      <c r="K26" s="16">
+      <c r="L26" s="16">
+        <v>0.29</v>
+      </c>
+      <c r="M26" s="16">
         <v>-0.5</v>
       </c>
-      <c r="L26" s="16">
+      <c r="N26" s="16">
         <v>15</v>
       </c>
-      <c r="M26" s="15"/>
-      <c r="N26" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="O26" s="25">
-        <v>1</v>
-      </c>
-      <c r="P26" s="16">
+      <c r="O26" s="15"/>
+      <c r="P26" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="25">
+        <v>1</v>
+      </c>
+      <c r="R26" s="16">
         <v>-0.1529</v>
       </c>
-      <c r="Q26" s="16">
+      <c r="S26" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="T26" s="16">
         <v>-0.5</v>
       </c>
-      <c r="R26" s="16">
+      <c r="U26" s="16">
         <v>50</v>
       </c>
-      <c r="S26" s="15"/>
-      <c r="T26" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="U26" s="25">
-        <v>1</v>
-      </c>
-      <c r="V26" s="16">
+      <c r="V26" s="15"/>
+      <c r="W26" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="X26" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="16">
         <v>5.028</v>
       </c>
-      <c r="W26" s="16">
+      <c r="Z26" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="AA26" s="16">
         <v>-3</v>
       </c>
-      <c r="X26" s="16">
+      <c r="AB26" s="16">
         <v>10</v>
       </c>
-      <c r="Y26" s="15"/>
-      <c r="Z26" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="AA26" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="16">
+      <c r="AC26" s="15"/>
+      <c r="AD26" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="AE26" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="16">
         <v>3</v>
       </c>
-      <c r="AC26" s="16">
+      <c r="AG26" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="AH26" s="16">
         <v>-3</v>
       </c>
-      <c r="AD26" s="16">
+      <c r="AI26" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" s="19"/>
-      <c r="B27" t="s" s="32">
-        <v>24</v>
+      <c r="B27" t="s" s="33">
+        <v>25</v>
       </c>
       <c r="C27" s="25">
         <v>1</v>
@@ -4828,80 +5137,95 @@
         <v>66.06999999999999</v>
       </c>
       <c r="E27" s="16">
+        <v>0.175</v>
+      </c>
+      <c r="F27" s="16">
         <v>60</v>
       </c>
-      <c r="F27" s="16">
+      <c r="G27" s="16">
         <v>70</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="I27" s="25">
-        <v>1</v>
-      </c>
-      <c r="J27" s="16">
+      <c r="H27" s="15"/>
+      <c r="I27" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="J27" s="25">
+        <v>1</v>
+      </c>
+      <c r="K27" s="16">
         <v>27.56</v>
       </c>
-      <c r="K27" s="16">
+      <c r="L27" s="16">
+        <v>2.06</v>
+      </c>
+      <c r="M27" s="16">
         <v>15</v>
       </c>
-      <c r="L27" s="16">
+      <c r="N27" s="16">
         <v>40</v>
       </c>
-      <c r="M27" s="15"/>
-      <c r="N27" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="O27" s="25">
-        <v>1</v>
-      </c>
-      <c r="P27" s="16">
+      <c r="O27" s="15"/>
+      <c r="P27" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="25">
+        <v>1</v>
+      </c>
+      <c r="R27" s="16">
         <v>60.44</v>
       </c>
-      <c r="Q27" s="16">
+      <c r="S27" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="T27" s="16">
         <v>20</v>
       </c>
-      <c r="R27" s="16">
+      <c r="U27" s="16">
         <v>80</v>
       </c>
-      <c r="S27" s="15"/>
-      <c r="T27" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="U27" s="25">
-        <v>1</v>
-      </c>
-      <c r="V27" s="16">
+      <c r="V27" s="15"/>
+      <c r="W27" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="X27" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="16">
         <v>59.35</v>
       </c>
-      <c r="W27" s="16">
+      <c r="Z27" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="AA27" s="16">
         <v>40</v>
       </c>
-      <c r="X27" s="16">
+      <c r="AB27" s="16">
         <v>70</v>
       </c>
-      <c r="Y27" s="15"/>
-      <c r="Z27" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="AA27" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="16">
+      <c r="AC27" s="15"/>
+      <c r="AD27" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="AE27" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="16">
         <v>61.48</v>
       </c>
-      <c r="AC27" s="16">
+      <c r="AG27" s="16">
+        <v>0.23</v>
+      </c>
+      <c r="AH27" s="16">
         <v>60</v>
       </c>
-      <c r="AD27" s="16">
+      <c r="AI27" s="16">
         <v>70</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" s="19"/>
       <c r="B28" t="s" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="25">
         <v>1</v>
@@ -4910,122 +5234,142 @@
         <v>108.1</v>
       </c>
       <c r="E28" s="16">
+        <v>0.033</v>
+      </c>
+      <c r="F28" s="16">
         <v>10</v>
       </c>
-      <c r="F28" s="16">
+      <c r="G28" s="16">
         <v>200</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="I28" s="25">
-        <v>1</v>
-      </c>
-      <c r="J28" s="38">
+      <c r="H28" s="15"/>
+      <c r="I28" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="J28" s="25">
+        <v>1</v>
+      </c>
+      <c r="K28" s="39">
         <v>3.424e-06</v>
       </c>
-      <c r="K28" s="16">
-        <v>0</v>
-      </c>
       <c r="L28" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="M28" s="16">
+        <v>0</v>
+      </c>
+      <c r="N28" s="16">
         <v>140</v>
       </c>
-      <c r="M28" s="15"/>
-      <c r="N28" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="O28" s="25">
-        <v>1</v>
-      </c>
-      <c r="P28" s="16">
+      <c r="O28" s="15"/>
+      <c r="P28" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="Q28" s="25">
+        <v>1</v>
+      </c>
+      <c r="R28" s="16">
         <v>109</v>
       </c>
-      <c r="Q28" s="16">
-        <v>0</v>
-      </c>
-      <c r="R28" s="16">
+      <c r="S28" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="T28" s="16">
+        <v>0</v>
+      </c>
+      <c r="U28" s="16">
         <v>110</v>
       </c>
-      <c r="S28" s="15"/>
-      <c r="T28" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="U28" s="25">
-        <v>1</v>
-      </c>
-      <c r="V28" s="16">
+      <c r="V28" s="15"/>
+      <c r="W28" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="X28" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="16">
         <v>108.6</v>
       </c>
-      <c r="W28" s="16">
+      <c r="Z28" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="AA28" s="16">
         <v>95</v>
       </c>
-      <c r="X28" s="16">
+      <c r="AB28" s="16">
         <v>115</v>
       </c>
-      <c r="Y28" s="15"/>
-      <c r="Z28" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="AA28" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="16">
+      <c r="AC28" s="15"/>
+      <c r="AD28" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="AE28" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="16">
         <v>108</v>
       </c>
-      <c r="AC28" s="16">
+      <c r="AG28" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="AH28" s="16">
         <v>10</v>
       </c>
-      <c r="AD28" s="16">
+      <c r="AI28" s="16">
         <v>200</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" s="19"/>
-      <c r="B29" t="s" s="30">
-        <v>28</v>
+      <c r="B29" t="s" s="31">
+        <v>29</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
-      <c r="H29" t="s" s="31">
-        <v>27</v>
-      </c>
-      <c r="I29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" t="s" s="32">
+        <v>28</v>
+      </c>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
-      <c r="M29" s="37"/>
-      <c r="N29" t="s" s="31">
-        <v>27</v>
-      </c>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="38"/>
+      <c r="P29" t="s" s="32">
+        <v>28</v>
+      </c>
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
-      <c r="S29" s="37"/>
-      <c r="T29" t="s" s="31">
-        <v>35</v>
-      </c>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
       <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
+      <c r="V29" s="38"/>
+      <c r="W29" t="s" s="32">
+        <v>36</v>
+      </c>
       <c r="X29" s="15"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" t="s" s="31">
-        <v>28</v>
-      </c>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
       <c r="AA29" s="15"/>
       <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="15"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" t="s" s="32">
+        <v>29</v>
+      </c>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="15"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" s="19"/>
       <c r="B30" t="s" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" s="25">
         <v>1</v>
@@ -5034,80 +5378,95 @@
         <v>3.711</v>
       </c>
       <c r="E30" s="16">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
         <v>13.657</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="I30" s="25">
-        <v>1</v>
-      </c>
-      <c r="J30" s="16">
+      <c r="H30" s="15"/>
+      <c r="I30" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="J30" s="25">
+        <v>1</v>
+      </c>
+      <c r="K30" s="16">
         <v>6.549</v>
       </c>
-      <c r="K30" s="16">
-        <v>0</v>
-      </c>
       <c r="L30" s="16">
+        <v>0.013</v>
+      </c>
+      <c r="M30" s="16">
+        <v>0</v>
+      </c>
+      <c r="N30" s="16">
         <v>16.751</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="O30" s="25">
-        <v>1</v>
-      </c>
-      <c r="P30" s="16">
+      <c r="O30" s="15"/>
+      <c r="P30" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="25">
+        <v>1</v>
+      </c>
+      <c r="R30" s="16">
         <v>5.809</v>
       </c>
-      <c r="Q30" s="16">
-        <v>0</v>
-      </c>
-      <c r="R30" s="16">
+      <c r="S30" s="16">
+        <v>0.022</v>
+      </c>
+      <c r="T30" s="16">
+        <v>0</v>
+      </c>
+      <c r="U30" s="16">
         <v>16.751</v>
       </c>
-      <c r="S30" s="15"/>
-      <c r="T30" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="U30" s="25">
-        <v>1</v>
-      </c>
-      <c r="V30" s="16">
+      <c r="V30" s="15"/>
+      <c r="W30" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="X30" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="16">
         <v>5.849</v>
       </c>
-      <c r="W30" s="16">
-        <v>0</v>
-      </c>
-      <c r="X30" s="16">
+      <c r="Z30" s="16">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AA30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="16">
         <v>50</v>
       </c>
-      <c r="Y30" s="15"/>
-      <c r="Z30" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="AA30" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="16">
+      <c r="AC30" s="15"/>
+      <c r="AD30" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="AE30" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="16">
         <v>5.369</v>
       </c>
-      <c r="AC30" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="16">
+      <c r="AG30" s="16">
+        <v>0.093</v>
+      </c>
+      <c r="AH30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="16">
         <v>13.657</v>
       </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" s="19"/>
       <c r="B31" t="s" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31" s="25">
         <v>1</v>
@@ -5116,80 +5475,95 @@
         <v>12.24</v>
       </c>
       <c r="E31" s="16">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="F31" s="16">
         <v>-14</v>
       </c>
-      <c r="F31" s="16">
+      <c r="G31" s="16">
         <v>15</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="I31" s="25">
-        <v>1</v>
-      </c>
-      <c r="J31" s="16">
+      <c r="H31" s="15"/>
+      <c r="I31" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="J31" s="25">
+        <v>1</v>
+      </c>
+      <c r="K31" s="16">
         <v>5.775</v>
       </c>
-      <c r="K31" s="16">
+      <c r="L31" s="16">
+        <v>0.23</v>
+      </c>
+      <c r="M31" s="16">
         <v>-3</v>
       </c>
-      <c r="L31" s="16">
+      <c r="N31" s="16">
         <v>10</v>
       </c>
-      <c r="M31" s="15"/>
-      <c r="N31" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="O31" s="25">
-        <v>1</v>
-      </c>
-      <c r="P31" s="16">
+      <c r="O31" s="15"/>
+      <c r="P31" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="25">
+        <v>1</v>
+      </c>
+      <c r="R31" s="16">
         <v>9.997999999999999</v>
       </c>
-      <c r="Q31" s="16">
+      <c r="S31" s="16">
+        <v>0.11</v>
+      </c>
+      <c r="T31" s="16">
         <v>-3</v>
       </c>
-      <c r="R31" s="16">
+      <c r="U31" s="16">
         <v>10</v>
       </c>
-      <c r="S31" s="15"/>
-      <c r="T31" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="U31" s="25">
-        <v>1</v>
-      </c>
-      <c r="V31" s="16">
+      <c r="V31" s="15"/>
+      <c r="W31" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="X31" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="16">
         <v>13.23</v>
       </c>
-      <c r="W31" s="16">
+      <c r="Z31" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="AA31" s="16">
         <v>-14</v>
       </c>
-      <c r="X31" s="16">
+      <c r="AB31" s="16">
         <v>15</v>
       </c>
-      <c r="Y31" s="15"/>
-      <c r="Z31" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="AA31" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="16">
+      <c r="AC31" s="15"/>
+      <c r="AD31" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="AE31" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="16">
         <v>11.05</v>
       </c>
-      <c r="AC31" s="16">
+      <c r="AG31" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="AH31" s="16">
         <v>-14</v>
       </c>
-      <c r="AD31" s="16">
+      <c r="AI31" s="16">
         <v>15</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" s="19"/>
-      <c r="B32" t="s" s="32">
-        <v>24</v>
+      <c r="B32" t="s" s="33">
+        <v>25</v>
       </c>
       <c r="C32" s="25">
         <v>1</v>
@@ -5198,80 +5572,95 @@
         <v>132.5</v>
       </c>
       <c r="E32" s="16">
+        <v>0.123</v>
+      </c>
+      <c r="F32" s="16">
         <v>130</v>
       </c>
-      <c r="F32" s="16">
+      <c r="G32" s="16">
         <v>140</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="I32" s="25">
-        <v>1</v>
-      </c>
-      <c r="J32" s="16">
+      <c r="H32" s="15"/>
+      <c r="I32" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="J32" s="25">
+        <v>1</v>
+      </c>
+      <c r="K32" s="16">
         <v>66.90000000000001</v>
       </c>
-      <c r="K32" s="16">
+      <c r="L32" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="M32" s="16">
         <v>60</v>
       </c>
-      <c r="L32" s="16">
+      <c r="N32" s="16">
         <v>70</v>
       </c>
-      <c r="M32" s="15"/>
-      <c r="N32" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="O32" s="25">
-        <v>1</v>
-      </c>
-      <c r="P32" s="16">
+      <c r="O32" s="15"/>
+      <c r="P32" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="25">
+        <v>1</v>
+      </c>
+      <c r="R32" s="16">
         <v>81.72</v>
       </c>
-      <c r="Q32" s="16">
+      <c r="S32" s="16">
+        <v>0.38</v>
+      </c>
+      <c r="T32" s="16">
         <v>60</v>
       </c>
-      <c r="R32" s="16">
+      <c r="U32" s="16">
         <v>70</v>
       </c>
-      <c r="S32" s="15"/>
-      <c r="T32" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="U32" s="25">
-        <v>1</v>
-      </c>
-      <c r="V32" s="16">
+      <c r="V32" s="15"/>
+      <c r="W32" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="X32" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="16">
         <v>128.2</v>
       </c>
-      <c r="W32" s="16">
+      <c r="Z32" s="16">
+        <v>0.16</v>
+      </c>
+      <c r="AA32" s="16">
         <v>60</v>
       </c>
-      <c r="X32" s="16">
+      <c r="AB32" s="16">
         <v>140</v>
       </c>
-      <c r="Y32" s="15"/>
-      <c r="Z32" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="AA32" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="16">
+      <c r="AC32" s="15"/>
+      <c r="AD32" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="AE32" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="16">
         <v>129.2</v>
       </c>
-      <c r="AC32" s="16">
+      <c r="AG32" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="AH32" s="16">
         <v>110</v>
       </c>
-      <c r="AD32" s="16">
+      <c r="AI32" s="16">
         <v>140</v>
       </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" s="19"/>
       <c r="B33" t="s" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33" s="25">
         <v>1</v>
@@ -5280,122 +5669,142 @@
         <v>49.54</v>
       </c>
       <c r="E33" s="16">
+        <v>0.019</v>
+      </c>
+      <c r="F33" s="16">
         <v>10</v>
       </c>
-      <c r="F33" s="16">
+      <c r="G33" s="16">
         <v>150</v>
       </c>
-      <c r="G33" s="15"/>
-      <c r="H33" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="I33" s="25">
-        <v>1</v>
-      </c>
-      <c r="J33" s="16">
+      <c r="H33" s="15"/>
+      <c r="I33" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="J33" s="25">
+        <v>1</v>
+      </c>
+      <c r="K33" s="16">
         <v>106</v>
       </c>
-      <c r="K33" s="16">
+      <c r="L33" s="16">
+        <v>0.11</v>
+      </c>
+      <c r="M33" s="16">
         <v>10</v>
       </c>
-      <c r="L33" s="16">
+      <c r="N33" s="16">
         <v>200</v>
       </c>
-      <c r="M33" s="15"/>
-      <c r="N33" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="O33" s="25">
-        <v>1</v>
-      </c>
-      <c r="P33" s="16">
+      <c r="O33" s="15"/>
+      <c r="P33" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="Q33" s="25">
+        <v>1</v>
+      </c>
+      <c r="R33" s="16">
         <v>0.003091</v>
       </c>
-      <c r="Q33" s="16">
-        <v>0</v>
-      </c>
-      <c r="R33" s="16">
+      <c r="S33" s="16">
+        <v>0.018</v>
+      </c>
+      <c r="T33" s="16">
+        <v>0</v>
+      </c>
+      <c r="U33" s="16">
         <v>200</v>
       </c>
-      <c r="S33" s="15"/>
-      <c r="T33" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="U33" s="25">
-        <v>1</v>
-      </c>
-      <c r="V33" s="16">
+      <c r="V33" s="15"/>
+      <c r="W33" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="X33" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="16">
         <v>40.57</v>
       </c>
-      <c r="W33" s="16">
-        <v>0</v>
-      </c>
-      <c r="X33" s="16">
+      <c r="Z33" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AA33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="16">
         <v>140</v>
       </c>
-      <c r="Y33" s="15"/>
-      <c r="Z33" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="AA33" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="16">
+      <c r="AC33" s="15"/>
+      <c r="AD33" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="AE33" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="16">
         <v>39.07</v>
       </c>
-      <c r="AC33" s="16">
+      <c r="AG33" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="AH33" s="16">
         <v>10</v>
       </c>
-      <c r="AD33" s="16">
+      <c r="AI33" s="16">
         <v>150</v>
       </c>
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" s="19"/>
-      <c r="B34" t="s" s="30">
-        <v>29</v>
+      <c r="B34" t="s" s="31">
+        <v>30</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
-      <c r="H34" t="s" s="31">
-        <v>28</v>
-      </c>
-      <c r="I34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" t="s" s="32">
+        <v>29</v>
+      </c>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
-      <c r="M34" s="37"/>
-      <c r="N34" t="s" s="31">
-        <v>28</v>
-      </c>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="38"/>
+      <c r="P34" t="s" s="32">
+        <v>29</v>
+      </c>
       <c r="Q34" s="15"/>
       <c r="R34" s="15"/>
-      <c r="S34" s="37"/>
-      <c r="T34" t="s" s="31">
-        <v>28</v>
-      </c>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
       <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
+      <c r="V34" s="38"/>
+      <c r="W34" t="s" s="32">
+        <v>29</v>
+      </c>
       <c r="X34" s="15"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" t="s" s="31">
-        <v>35</v>
-      </c>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
       <c r="AA34" s="15"/>
       <c r="AB34" s="15"/>
-      <c r="AC34" s="15"/>
-      <c r="AD34" s="15"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" t="s" s="32">
+        <v>36</v>
+      </c>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="15"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" s="19"/>
       <c r="B35" t="s" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35" s="25">
         <v>0</v>
@@ -5406,74 +5815,87 @@
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
-      <c r="H35" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="I35" s="25">
-        <v>1</v>
-      </c>
-      <c r="J35" s="16">
+      <c r="H35" s="15"/>
+      <c r="I35" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="J35" s="25">
+        <v>1</v>
+      </c>
+      <c r="K35" s="16">
         <v>3.718</v>
       </c>
-      <c r="K35" s="16">
-        <v>0</v>
-      </c>
       <c r="L35" s="16">
+        <v>0.002</v>
+      </c>
+      <c r="M35" s="16">
+        <v>0</v>
+      </c>
+      <c r="N35" s="16">
         <v>13.657</v>
       </c>
-      <c r="M35" s="15"/>
-      <c r="N35" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="O35" s="25">
-        <v>1</v>
-      </c>
-      <c r="P35" s="16">
+      <c r="O35" s="15"/>
+      <c r="P35" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="Q35" s="25">
+        <v>1</v>
+      </c>
+      <c r="R35" s="16">
         <v>3.68</v>
       </c>
-      <c r="Q35" s="16">
-        <v>0</v>
-      </c>
-      <c r="R35" s="16">
+      <c r="S35" s="16">
+        <v>0.002</v>
+      </c>
+      <c r="T35" s="16">
+        <v>0</v>
+      </c>
+      <c r="U35" s="16">
         <v>13.657</v>
       </c>
-      <c r="S35" s="15"/>
-      <c r="T35" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="U35" s="25">
-        <v>1</v>
-      </c>
-      <c r="V35" s="16">
+      <c r="V35" s="15"/>
+      <c r="W35" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="X35" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="16">
         <v>3.521</v>
       </c>
-      <c r="W35" s="16">
-        <v>0</v>
-      </c>
-      <c r="X35" s="16">
+      <c r="Z35" s="16">
+        <v>0.006</v>
+      </c>
+      <c r="AA35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="16">
         <v>13.657</v>
       </c>
-      <c r="Y35" s="15"/>
-      <c r="Z35" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="AA35" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="16">
+      <c r="AC35" s="15"/>
+      <c r="AD35" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="AE35" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="16">
         <v>3.537</v>
       </c>
-      <c r="AC35" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="16">
+      <c r="AG35" s="16">
+        <v>0.005</v>
+      </c>
+      <c r="AH35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="16">
         <v>50</v>
       </c>
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" s="19"/>
       <c r="B36" t="s" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C36" s="25">
         <v>0</v>
@@ -5484,74 +5906,87 @@
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
-      <c r="H36" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="I36" s="25">
-        <v>1</v>
-      </c>
-      <c r="J36" s="16">
+      <c r="H36" s="15"/>
+      <c r="I36" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="J36" s="25">
+        <v>1</v>
+      </c>
+      <c r="K36" s="16">
         <v>12.44</v>
       </c>
-      <c r="K36" s="16">
+      <c r="L36" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="M36" s="16">
         <v>-14</v>
       </c>
-      <c r="L36" s="16">
+      <c r="N36" s="16">
         <v>15</v>
       </c>
-      <c r="M36" s="15"/>
-      <c r="N36" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="O36" s="25">
-        <v>1</v>
-      </c>
-      <c r="P36" s="16">
+      <c r="O36" s="15"/>
+      <c r="P36" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="Q36" s="25">
+        <v>1</v>
+      </c>
+      <c r="R36" s="16">
         <v>8.896000000000001</v>
       </c>
-      <c r="Q36" s="16">
+      <c r="S36" s="16">
+        <v>0.105</v>
+      </c>
+      <c r="T36" s="16">
         <v>-14</v>
       </c>
-      <c r="R36" s="16">
+      <c r="U36" s="16">
         <v>15</v>
       </c>
-      <c r="S36" s="15"/>
-      <c r="T36" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="U36" s="25">
-        <v>1</v>
-      </c>
-      <c r="V36" s="16">
+      <c r="V36" s="15"/>
+      <c r="W36" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="X36" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="16">
         <v>-2.526</v>
       </c>
-      <c r="W36" s="16">
+      <c r="Z36" s="16">
+        <v>3.9</v>
+      </c>
+      <c r="AA36" s="16">
         <v>-14</v>
       </c>
-      <c r="X36" s="16">
+      <c r="AB36" s="16">
         <v>15</v>
       </c>
-      <c r="Y36" s="15"/>
-      <c r="Z36" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="AA36" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="36">
+      <c r="AC36" s="15"/>
+      <c r="AD36" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="AE36" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="37">
         <v>-9.995e-09</v>
       </c>
-      <c r="AC36" s="16">
+      <c r="AG36" s="16">
+        <v>6.92</v>
+      </c>
+      <c r="AH36" s="16">
         <v>-25</v>
       </c>
-      <c r="AD36" s="16">
+      <c r="AI36" s="16">
         <v>15</v>
       </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" s="19"/>
-      <c r="B37" t="s" s="32">
-        <v>24</v>
+      <c r="B37" t="s" s="33">
+        <v>25</v>
       </c>
       <c r="C37" s="25">
         <v>0</v>
@@ -5562,74 +5997,87 @@
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
-      <c r="H37" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="I37" s="25">
-        <v>1</v>
-      </c>
-      <c r="J37" s="16">
+      <c r="H37" s="15"/>
+      <c r="I37" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="J37" s="25">
+        <v>1</v>
+      </c>
+      <c r="K37" s="16">
         <v>133.3</v>
       </c>
-      <c r="K37" s="16">
+      <c r="L37" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="M37" s="16">
         <v>130</v>
       </c>
-      <c r="L37" s="16">
+      <c r="N37" s="16">
         <v>140</v>
       </c>
-      <c r="M37" s="15"/>
-      <c r="N37" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="O37" s="25">
-        <v>1</v>
-      </c>
-      <c r="P37" s="16">
+      <c r="O37" s="15"/>
+      <c r="P37" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="25">
+        <v>1</v>
+      </c>
+      <c r="R37" s="16">
         <v>134.4</v>
       </c>
-      <c r="Q37" s="16">
+      <c r="S37" s="16">
+        <v>0.134</v>
+      </c>
+      <c r="T37" s="16">
         <v>130</v>
       </c>
-      <c r="R37" s="16">
+      <c r="U37" s="16">
         <v>140</v>
       </c>
-      <c r="S37" s="15"/>
-      <c r="T37" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="U37" s="25">
-        <v>1</v>
-      </c>
-      <c r="V37" s="16">
+      <c r="V37" s="15"/>
+      <c r="W37" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="X37" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="16">
         <v>122.6</v>
       </c>
-      <c r="W37" s="16">
+      <c r="Z37" s="16">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AA37" s="16">
         <v>120</v>
       </c>
-      <c r="X37" s="16">
+      <c r="AB37" s="16">
         <v>140</v>
       </c>
-      <c r="Y37" s="15"/>
-      <c r="Z37" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="AA37" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB37" s="16">
+      <c r="AC37" s="15"/>
+      <c r="AD37" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="AE37" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="16">
         <v>127.2</v>
       </c>
-      <c r="AC37" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="16">
+      <c r="AG37" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="AH37" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="16">
         <v>140</v>
       </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" s="19"/>
       <c r="B38" t="s" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" s="25">
         <v>0</v>
@@ -5640,115 +6088,133 @@
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
-      <c r="H38" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="I38" s="25">
-        <v>1</v>
-      </c>
-      <c r="J38" s="16">
+      <c r="H38" s="15"/>
+      <c r="I38" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="J38" s="25">
+        <v>1</v>
+      </c>
+      <c r="K38" s="16">
         <v>49.35</v>
       </c>
-      <c r="K38" s="16">
+      <c r="L38" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="M38" s="16">
         <v>10</v>
       </c>
-      <c r="L38" s="16">
+      <c r="N38" s="16">
         <v>150</v>
       </c>
-      <c r="M38" s="15"/>
-      <c r="N38" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="O38" s="25">
-        <v>1</v>
-      </c>
-      <c r="P38" s="16">
+      <c r="O38" s="15"/>
+      <c r="P38" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="Q38" s="25">
+        <v>1</v>
+      </c>
+      <c r="R38" s="16">
         <v>48.93</v>
       </c>
-      <c r="Q38" s="16">
+      <c r="S38" s="16">
+        <v>0.019</v>
+      </c>
+      <c r="T38" s="16">
         <v>10</v>
       </c>
-      <c r="R38" s="16">
+      <c r="U38" s="16">
         <v>150</v>
       </c>
-      <c r="S38" s="15"/>
-      <c r="T38" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="U38" s="25">
-        <v>1</v>
-      </c>
-      <c r="V38" s="16">
+      <c r="V38" s="15"/>
+      <c r="W38" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="X38" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="16">
         <v>9.295</v>
       </c>
-      <c r="W38" s="16">
-        <v>0</v>
-      </c>
-      <c r="X38" s="16">
+      <c r="Z38" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="AA38" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="16">
         <v>150</v>
       </c>
-      <c r="Y38" s="15"/>
-      <c r="Z38" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="AA38" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="16">
+      <c r="AC38" s="15"/>
+      <c r="AD38" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="AE38" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="16">
         <v>10.83</v>
       </c>
-      <c r="AC38" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="16">
+      <c r="AG38" s="16">
+        <v>0.28</v>
+      </c>
+      <c r="AH38" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="16">
         <v>110</v>
       </c>
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" s="19"/>
       <c r="B39" t="s" s="21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" s="25">
         <v>0</v>
       </c>
       <c r="D39" s="16">
-        <v>188.7</v>
+        <v>186.9</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
-      <c r="H39" t="s" s="31">
-        <v>29</v>
-      </c>
-      <c r="I39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" t="s" s="32">
+        <v>30</v>
+      </c>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
-      <c r="N39" t="s" s="31">
-        <v>29</v>
-      </c>
+      <c r="N39" s="15"/>
       <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
+      <c r="P39" t="s" s="32">
+        <v>30</v>
+      </c>
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
-      <c r="T39" t="s" s="31">
-        <v>29</v>
-      </c>
+      <c r="T39" s="15"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
+      <c r="W39" t="s" s="32">
+        <v>30</v>
+      </c>
       <c r="X39" s="15"/>
       <c r="Y39" s="15"/>
-      <c r="Z39" t="s" s="31">
-        <v>29</v>
-      </c>
+      <c r="Z39" s="15"/>
       <c r="AA39" s="15"/>
       <c r="AB39" s="15"/>
       <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
+      <c r="AD39" t="s" s="32">
+        <v>30</v>
+      </c>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="15"/>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="15"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" s="19"/>
@@ -5758,49 +6224,54 @@
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
-      <c r="H40" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="I40" s="25">
-        <v>0</v>
-      </c>
-      <c r="J40" s="16">
-        <v>0</v>
-      </c>
-      <c r="K40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="J40" s="25">
+        <v>0</v>
+      </c>
+      <c r="K40" s="16">
+        <v>0</v>
+      </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
-      <c r="N40" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="O40" s="25">
-        <v>0</v>
-      </c>
-      <c r="P40" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="Q40" s="25">
+        <v>0</v>
+      </c>
+      <c r="R40" s="16">
+        <v>0</v>
+      </c>
       <c r="S40" s="15"/>
-      <c r="T40" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="U40" s="25">
-        <v>0</v>
-      </c>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
       <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
+      <c r="W40" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="X40" s="25">
+        <v>0</v>
+      </c>
       <c r="Y40" s="15"/>
-      <c r="Z40" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="AA40" s="25">
-        <v>0</v>
-      </c>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
       <c r="AB40" s="15"/>
       <c r="AC40" s="15"/>
-      <c r="AD40" s="15"/>
+      <c r="AD40" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="AE40" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40" s="15"/>
+      <c r="AI40" s="15"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" s="19"/>
@@ -5810,49 +6281,54 @@
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
-      <c r="H41" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="I41" s="25">
-        <v>0</v>
-      </c>
-      <c r="J41" s="16">
-        <v>0</v>
-      </c>
-      <c r="K41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="J41" s="25">
+        <v>0</v>
+      </c>
+      <c r="K41" s="16">
+        <v>0</v>
+      </c>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
-      <c r="N41" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="O41" s="25">
-        <v>0</v>
-      </c>
-      <c r="P41" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="Q41" s="25">
+        <v>0</v>
+      </c>
+      <c r="R41" s="16">
+        <v>0</v>
+      </c>
       <c r="S41" s="15"/>
-      <c r="T41" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="U41" s="25">
-        <v>0</v>
-      </c>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
       <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="15"/>
+      <c r="W41" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="X41" s="25">
+        <v>0</v>
+      </c>
       <c r="Y41" s="15"/>
-      <c r="Z41" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="AA41" s="25">
-        <v>0</v>
-      </c>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="15"/>
       <c r="AB41" s="15"/>
       <c r="AC41" s="15"/>
-      <c r="AD41" s="15"/>
+      <c r="AD41" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="AE41" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="15"/>
+      <c r="AG41" s="15"/>
+      <c r="AH41" s="15"/>
+      <c r="AI41" s="15"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" s="19"/>
@@ -5862,49 +6338,54 @@
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
-      <c r="H42" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="I42" s="25">
-        <v>0</v>
-      </c>
-      <c r="J42" s="16">
-        <v>0</v>
-      </c>
-      <c r="K42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="J42" s="25">
+        <v>0</v>
+      </c>
+      <c r="K42" s="16">
+        <v>0</v>
+      </c>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
-      <c r="N42" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="O42" s="25">
-        <v>0</v>
-      </c>
-      <c r="P42" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="Q42" s="25">
+        <v>0</v>
+      </c>
+      <c r="R42" s="16">
+        <v>0</v>
+      </c>
       <c r="S42" s="15"/>
-      <c r="T42" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="U42" s="25">
-        <v>0</v>
-      </c>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
       <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="15"/>
+      <c r="W42" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="X42" s="25">
+        <v>0</v>
+      </c>
       <c r="Y42" s="15"/>
-      <c r="Z42" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="AA42" s="25">
-        <v>0</v>
-      </c>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
       <c r="AB42" s="15"/>
       <c r="AC42" s="15"/>
-      <c r="AD42" s="15"/>
+      <c r="AD42" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="AE42" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="15"/>
+      <c r="AG42" s="15"/>
+      <c r="AH42" s="15"/>
+      <c r="AI42" s="15"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" s="19"/>
@@ -5914,49 +6395,54 @@
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
-      <c r="H43" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="I43" s="25">
-        <v>0</v>
-      </c>
-      <c r="J43" s="16">
-        <v>0</v>
-      </c>
-      <c r="K43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="J43" s="25">
+        <v>0</v>
+      </c>
+      <c r="K43" s="16">
+        <v>0</v>
+      </c>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
-      <c r="N43" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="O43" s="25">
-        <v>0</v>
-      </c>
-      <c r="P43" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="Q43" s="25">
+        <v>0</v>
+      </c>
+      <c r="R43" s="16">
+        <v>0</v>
+      </c>
       <c r="S43" s="15"/>
-      <c r="T43" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="U43" s="25">
-        <v>0</v>
-      </c>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
       <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="15"/>
+      <c r="W43" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="X43" s="25">
+        <v>0</v>
+      </c>
       <c r="Y43" s="15"/>
-      <c r="Z43" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="AA43" s="25">
-        <v>0</v>
-      </c>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
       <c r="AB43" s="15"/>
       <c r="AC43" s="15"/>
-      <c r="AD43" s="15"/>
+      <c r="AD43" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="AE43" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="15"/>
+      <c r="AG43" s="15"/>
+      <c r="AH43" s="15"/>
+      <c r="AI43" s="15"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" s="19"/>
@@ -5966,86 +6452,91 @@
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
-      <c r="H44" t="s" s="23">
-        <v>30</v>
-      </c>
-      <c r="I44" s="25">
-        <v>0</v>
-      </c>
-      <c r="J44" s="16">
+      <c r="H44" s="15"/>
+      <c r="I44" t="s" s="23">
+        <v>31</v>
+      </c>
+      <c r="J44" s="25">
+        <v>0</v>
+      </c>
+      <c r="K44" s="16">
         <v>194.6</v>
       </c>
-      <c r="K44" s="15"/>
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
-      <c r="N44" t="s" s="23">
-        <v>30</v>
-      </c>
-      <c r="O44" s="25">
-        <v>0</v>
-      </c>
-      <c r="P44" s="16">
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" t="s" s="23">
+        <v>31</v>
+      </c>
+      <c r="Q44" s="25">
+        <v>0</v>
+      </c>
+      <c r="R44" s="16">
         <v>186.2</v>
       </c>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
       <c r="S44" s="15"/>
-      <c r="T44" t="s" s="23">
-        <v>30</v>
-      </c>
-      <c r="U44" s="25">
-        <v>0</v>
-      </c>
-      <c r="V44" s="16">
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" t="s" s="23">
+        <v>31</v>
+      </c>
+      <c r="X44" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="16">
         <v>167.4</v>
       </c>
-      <c r="W44" s="15"/>
-      <c r="X44" s="15"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" t="s" s="23">
-        <v>30</v>
-      </c>
-      <c r="AA44" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="16">
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="15"/>
+      <c r="AD44" t="s" s="23">
+        <v>31</v>
+      </c>
+      <c r="AE44" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="16">
         <v>196.1</v>
       </c>
-      <c r="AC44" s="15"/>
-      <c r="AD44" s="15"/>
+      <c r="AG44" s="15"/>
+      <c r="AH44" s="15"/>
+      <c r="AI44" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="N24:R24"/>
-    <mergeCell ref="T34:X34"/>
-    <mergeCell ref="T39:X39"/>
-    <mergeCell ref="T29:X29"/>
-    <mergeCell ref="Z39:AD39"/>
-    <mergeCell ref="Z34:AD34"/>
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="P14:U14"/>
+    <mergeCell ref="P19:U19"/>
+    <mergeCell ref="W14:AB14"/>
+    <mergeCell ref="W19:AB19"/>
+    <mergeCell ref="W24:AB24"/>
+    <mergeCell ref="AD14:AI14"/>
+    <mergeCell ref="AD19:AI19"/>
+    <mergeCell ref="AD24:AI24"/>
+    <mergeCell ref="AD29:AI29"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="P29:U29"/>
+    <mergeCell ref="P34:U34"/>
+    <mergeCell ref="P39:U39"/>
+    <mergeCell ref="P24:U24"/>
+    <mergeCell ref="W34:AB34"/>
+    <mergeCell ref="W39:AB39"/>
+    <mergeCell ref="W29:AB29"/>
+    <mergeCell ref="AD39:AI39"/>
+    <mergeCell ref="AD34:AI34"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B34:G34"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
